--- a/Figure/Design/Display/포스트(설계)_킹제현.xlsx
+++ b/Figure/Design/Display/포스트(설계)_킹제현.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jehyunlim/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\vscode_workspace\latex\teuldadocument\Figure\Design\Display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E391DDF-72E8-1445-B654-89B22E6CBF1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2B8DC3-60A3-4CBE-BD8E-92ECB8850861}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-3100" windowWidth="37500" windowHeight="20140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="지도에서 장소 선택" sheetId="7" r:id="rId1"/>
@@ -23,18 +23,7 @@
     <sheet name="내 게시글 상세조회" sheetId="13" r:id="rId8"/>
     <sheet name="댓글 수정 팝업창" sheetId="14" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -454,9 +443,6 @@
     <t>Path :  /diary/showAddDiary : GET</t>
   </si>
   <si>
-    <t>Controller : com.TeulDa.web.diary.DiaryController.showAddDiary()</t>
-  </si>
-  <si>
     <t>teulda</t>
   </si>
   <si>
@@ -757,6 +743,10 @@
   <si>
     <t xml:space="preserve"> 게시글 수정</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller : com.TeulDa.web.diary.DiaryController.showAddDiary()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1221,6 +1211,63 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1281,63 +1328,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1386,14 +1376,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1406,6 +1388,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2029,17 +2019,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D1C14A-FD69-4B60-AAD7-5AB4D3C9E5BA}">
   <dimension ref="B1:AA46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:N45"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45:J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="2" customWidth="1"/>
-    <col min="2" max="14" width="6.1640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.796875" style="2" customWidth="1"/>
+    <col min="2" max="14" width="6.1328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.796875" style="2" customWidth="1"/>
     <col min="16" max="27" width="8" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="12.5" style="2"/>
+    <col min="28" max="16384" width="12.46484375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="21" customHeight="1">
@@ -2071,21 +2061,21 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="2:27" ht="30.75" customHeight="1">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="92"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -2101,20 +2091,20 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="2:27" ht="19.5" customHeight="1">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="88"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="87" t="s">
+      <c r="H3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="89"/>
+      <c r="I3" s="60"/>
       <c r="J3" s="24" t="s">
         <v>113</v>
       </c>
@@ -2137,20 +2127,20 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="2:27" ht="19.5" customHeight="1">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="88"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="87" t="s">
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="89"/>
+      <c r="I4" s="60"/>
       <c r="J4" s="24" t="s">
         <v>115</v>
       </c>
@@ -2173,20 +2163,20 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="2:27" ht="19.5" customHeight="1">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="88"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="23" t="s">
         <v>128</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
-      <c r="H5" s="87" t="s">
+      <c r="H5" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="89"/>
+      <c r="I5" s="60"/>
       <c r="J5" s="24" t="s">
         <v>130</v>
       </c>
@@ -2209,10 +2199,10 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="2:27" ht="19.5" customHeight="1">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="88"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="23" t="s">
         <v>130</v>
       </c>
@@ -2975,31 +2965,31 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="2:27" ht="33" customHeight="1">
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="84" t="s">
+      <c r="C33" s="68"/>
+      <c r="D33" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="85"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="84" t="s">
+      <c r="H33" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="84" t="s">
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="M33" s="86"/>
-      <c r="N33" s="85"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="68"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -3014,29 +3004,29 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="2:27" ht="36" customHeight="1">
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="77" t="s">
+      <c r="C34" s="63"/>
+      <c r="D34" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="78"/>
+      <c r="E34" s="65"/>
       <c r="F34" s="19" t="s">
         <v>44</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H34" s="75" t="s">
+      <c r="H34" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="76"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="63"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
@@ -3052,29 +3042,29 @@
       <c r="AA34" s="13"/>
     </row>
     <row r="35" spans="2:27" ht="36" customHeight="1">
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="77" t="s">
+      <c r="C35" s="63"/>
+      <c r="D35" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="E35" s="78"/>
+      <c r="E35" s="65"/>
       <c r="F35" s="19" t="s">
         <v>44</v>
       </c>
       <c r="G35" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="75" t="s">
+      <c r="H35" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="76"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="63"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -3090,29 +3080,29 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="2:27" ht="36" customHeight="1">
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="77" t="s">
+      <c r="C36" s="63"/>
+      <c r="D36" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="78"/>
+      <c r="E36" s="65"/>
       <c r="F36" s="19" t="s">
         <v>44</v>
       </c>
       <c r="G36" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="75" t="s">
+      <c r="H36" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="76"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="63"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -3214,29 +3204,29 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="2:27" ht="19.5" customHeight="1">
-      <c r="B40" s="80" t="s">
+      <c r="B40" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="81"/>
-      <c r="D40" s="84" t="s">
+      <c r="C40" s="71"/>
+      <c r="D40" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="85"/>
-      <c r="F40" s="84" t="s">
+      <c r="E40" s="68"/>
+      <c r="F40" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="84" t="s">
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="85"/>
-      <c r="M40" s="80" t="s">
+      <c r="L40" s="68"/>
+      <c r="M40" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="N40" s="81"/>
+      <c r="N40" s="71"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -3252,25 +3242,25 @@
       <c r="AA40" s="1"/>
     </row>
     <row r="41" spans="2:27" ht="19.5" customHeight="1">
-      <c r="B41" s="82"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="84" t="s">
+      <c r="B41" s="72"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="85"/>
-      <c r="F41" s="84" t="s">
+      <c r="E41" s="68"/>
+      <c r="F41" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="84" t="s">
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="L41" s="85"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="83"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="73"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -3286,29 +3276,29 @@
       <c r="AA41" s="1"/>
     </row>
     <row r="42" spans="2:27" ht="19.5" customHeight="1">
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="61" t="s">
+      <c r="C42" s="75"/>
+      <c r="D42" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="E42" s="62"/>
-      <c r="F42" s="61" t="s">
+      <c r="E42" s="81"/>
+      <c r="F42" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="67" t="s">
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="L42" s="68"/>
-      <c r="M42" s="67" t="s">
+      <c r="L42" s="87"/>
+      <c r="M42" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="N42" s="68"/>
+      <c r="N42" s="87"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -3324,19 +3314,19 @@
       <c r="AA42" s="1"/>
     </row>
     <row r="43" spans="2:27" ht="99" customHeight="1">
-      <c r="B43" s="57"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="70"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="89"/>
+      <c r="M43" s="88"/>
+      <c r="N43" s="89"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -3352,23 +3342,23 @@
       <c r="AA43" s="1"/>
     </row>
     <row r="44" spans="2:27" ht="19.5" customHeight="1">
-      <c r="B44" s="57"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="61" t="s">
+      <c r="B44" s="76"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="62"/>
-      <c r="F44" s="61" t="s">
+      <c r="E44" s="81"/>
+      <c r="F44" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="71" t="s">
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="L44" s="72"/>
+      <c r="L44" s="91"/>
       <c r="M44" s="27"/>
       <c r="N44" s="28"/>
       <c r="O44" s="1"/>
@@ -3386,19 +3376,19 @@
       <c r="AA44" s="1"/>
     </row>
     <row r="45" spans="2:27" ht="33.75" customHeight="1">
-      <c r="B45" s="59"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="73"/>
-      <c r="L45" s="74"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="82" t="s">
+        <v>234</v>
+      </c>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="93"/>
       <c r="M45" s="21"/>
       <c r="N45" s="22"/>
       <c r="O45" s="1"/>
@@ -3445,12 +3435,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B42:C45"/>
+    <mergeCell ref="D42:E43"/>
+    <mergeCell ref="F42:J43"/>
+    <mergeCell ref="K42:L43"/>
+    <mergeCell ref="M42:N43"/>
+    <mergeCell ref="D44:E45"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="K44:L45"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="K41:L41"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="H35:K35"/>
@@ -3466,27 +3471,12 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:N34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="B42:C45"/>
-    <mergeCell ref="D42:E43"/>
-    <mergeCell ref="F42:J43"/>
-    <mergeCell ref="K42:L43"/>
-    <mergeCell ref="M42:N43"/>
-    <mergeCell ref="D44:E45"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="K44:L45"/>
-    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -3499,17 +3489,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE6CC7F-8BB1-0944-99A8-7EF064FBCCD5}">
   <dimension ref="B1:AA71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="2" customWidth="1"/>
-    <col min="2" max="14" width="6.1640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.796875" style="2" customWidth="1"/>
+    <col min="2" max="14" width="6.1328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.796875" style="2" customWidth="1"/>
     <col min="16" max="27" width="8" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="12.5" style="2"/>
+    <col min="28" max="16384" width="12.46484375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="21" customHeight="1">
@@ -3541,21 +3531,21 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="2:27" ht="30.75" customHeight="1">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="92"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -3575,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
@@ -3586,7 +3576,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K3" s="50"/>
       <c r="L3" s="50"/>
@@ -4443,31 +4433,31 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="2:27" ht="33" customHeight="1">
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="84" t="s">
+      <c r="C33" s="68"/>
+      <c r="D33" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="85"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="84" t="s">
+      <c r="H33" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="84" t="s">
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="M33" s="86"/>
-      <c r="N33" s="85"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="68"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -4482,29 +4472,29 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="2:27" ht="36" customHeight="1">
-      <c r="B34" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="77" t="s">
+      <c r="B34" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="63"/>
+      <c r="D34" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="78"/>
+      <c r="E34" s="65"/>
       <c r="F34" s="19" t="s">
         <v>44</v>
       </c>
       <c r="G34" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="75" t="s">
-        <v>141</v>
-      </c>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="76"/>
+      <c r="H34" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="63"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
@@ -4606,29 +4596,29 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="2:27" ht="19.5" customHeight="1">
-      <c r="B38" s="80" t="s">
+      <c r="B38" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="84" t="s">
+      <c r="C38" s="71"/>
+      <c r="D38" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="85"/>
-      <c r="F38" s="84" t="s">
+      <c r="E38" s="68"/>
+      <c r="F38" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="84" t="s">
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="L38" s="85"/>
-      <c r="M38" s="80" t="s">
+      <c r="L38" s="68"/>
+      <c r="M38" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="N38" s="81"/>
+      <c r="N38" s="71"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -4644,25 +4634,25 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="2:27" ht="19.5" customHeight="1">
-      <c r="B39" s="82"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="84" t="s">
+      <c r="B39" s="72"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="85"/>
-      <c r="F39" s="84" t="s">
+      <c r="E39" s="68"/>
+      <c r="F39" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="84" t="s">
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="L39" s="85"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="83"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="73"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -4678,25 +4668,25 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="2:27" ht="19.5" customHeight="1">
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="75"/>
+      <c r="D40" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="81"/>
+      <c r="F40" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="E40" s="62"/>
-      <c r="F40" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="68"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="86"/>
+      <c r="N40" s="87"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -4712,594 +4702,631 @@
       <c r="AA40" s="1"/>
     </row>
     <row r="41" spans="2:27" ht="15" customHeight="1">
-      <c r="B41" s="57"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="70"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="70"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="89"/>
     </row>
     <row r="42" spans="2:27" ht="15" customHeight="1">
-      <c r="B42" s="57"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="61" t="s">
+      <c r="B42" s="76"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="E42" s="62"/>
-      <c r="F42" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="71" t="s">
+      <c r="E42" s="81"/>
+      <c r="F42" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="L42" s="72"/>
+      <c r="L42" s="91"/>
       <c r="M42" s="27"/>
       <c r="N42" s="28"/>
     </row>
     <row r="43" spans="2:27" ht="15" customHeight="1">
-      <c r="B43" s="59"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="73"/>
-      <c r="L43" s="74"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="92"/>
+      <c r="L43" s="93"/>
       <c r="M43" s="21"/>
       <c r="N43" s="22"/>
     </row>
     <row r="44" spans="2:27" ht="15" customHeight="1">
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="61" t="s">
+      <c r="C44" s="75"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="68"/>
-      <c r="M44" s="67"/>
-      <c r="N44" s="68"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="86"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="86"/>
+      <c r="N44" s="87"/>
     </row>
     <row r="45" spans="2:27" ht="15" customHeight="1">
-      <c r="B45" s="57"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="70"/>
-      <c r="M45" s="69"/>
-      <c r="N45" s="70"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="89"/>
+      <c r="M45" s="88"/>
+      <c r="N45" s="89"/>
     </row>
     <row r="46" spans="2:27" ht="15" customHeight="1">
-      <c r="B46" s="57"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="61" t="s">
+      <c r="B46" s="76"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="E46" s="62"/>
-      <c r="F46" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="71" t="s">
+      <c r="E46" s="81"/>
+      <c r="F46" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" s="84"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="L46" s="72"/>
+      <c r="L46" s="91"/>
       <c r="M46" s="27"/>
       <c r="N46" s="28"/>
     </row>
     <row r="47" spans="2:27" ht="15" customHeight="1">
-      <c r="B47" s="59"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="73"/>
-      <c r="L47" s="74"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="92"/>
+      <c r="L47" s="93"/>
       <c r="M47" s="21"/>
       <c r="N47" s="22"/>
     </row>
     <row r="48" spans="2:27" ht="15" customHeight="1">
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="75"/>
+      <c r="D48" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="81"/>
+      <c r="F48" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="C48" s="56"/>
-      <c r="D48" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="E48" s="62"/>
-      <c r="F48" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="68"/>
-      <c r="M48" s="67"/>
-      <c r="N48" s="68"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="86"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="86"/>
+      <c r="N48" s="87"/>
     </row>
     <row r="49" spans="2:14" ht="15" customHeight="1">
-      <c r="B49" s="57"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="66"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="69"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="69"/>
-      <c r="N49" s="70"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="83"/>
+      <c r="K49" s="88"/>
+      <c r="L49" s="89"/>
+      <c r="M49" s="88"/>
+      <c r="N49" s="89"/>
     </row>
     <row r="50" spans="2:14" ht="15" customHeight="1">
-      <c r="B50" s="57"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="61" t="s">
+      <c r="B50" s="76"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="62"/>
-      <c r="F50" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="72"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="81"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="91"/>
       <c r="M50" s="27"/>
       <c r="N50" s="28"/>
     </row>
     <row r="51" spans="2:14" ht="15" customHeight="1">
-      <c r="B51" s="59"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="G51" s="66"/>
-      <c r="H51" s="66"/>
-      <c r="I51" s="66"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="73" t="s">
+      <c r="B51" s="78"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="G51" s="85"/>
+      <c r="H51" s="85"/>
+      <c r="I51" s="85"/>
+      <c r="J51" s="83"/>
+      <c r="K51" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="L51" s="74"/>
+      <c r="L51" s="93"/>
       <c r="M51" s="21"/>
       <c r="N51" s="22"/>
     </row>
     <row r="52" spans="2:14" ht="15" customHeight="1">
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="E52" s="62"/>
-      <c r="F52" s="61" t="s">
+      <c r="C52" s="75"/>
+      <c r="D52" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="81"/>
+      <c r="F52" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="68"/>
-      <c r="M52" s="67"/>
-      <c r="N52" s="68"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="86"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="86"/>
+      <c r="N52" s="87"/>
     </row>
     <row r="53" spans="2:14" ht="15" customHeight="1">
-      <c r="B53" s="57"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="66"/>
-      <c r="I53" s="66"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="69"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="69"/>
-      <c r="N53" s="70"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="85"/>
+      <c r="J53" s="83"/>
+      <c r="K53" s="88"/>
+      <c r="L53" s="89"/>
+      <c r="M53" s="88"/>
+      <c r="N53" s="89"/>
     </row>
     <row r="54" spans="2:14" ht="15" customHeight="1">
-      <c r="B54" s="57"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="61" t="s">
+      <c r="B54" s="76"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="E54" s="62"/>
-      <c r="F54" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="71"/>
-      <c r="L54" s="72"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="81"/>
+      <c r="K54" s="90"/>
+      <c r="L54" s="91"/>
       <c r="M54" s="27"/>
       <c r="N54" s="28"/>
     </row>
     <row r="55" spans="2:14" ht="15" customHeight="1">
-      <c r="B55" s="59"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="G55" s="66"/>
-      <c r="H55" s="66"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="73" t="s">
+      <c r="B55" s="78"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="83"/>
+      <c r="K55" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="L55" s="74"/>
+      <c r="L55" s="93"/>
       <c r="M55" s="21"/>
       <c r="N55" s="22"/>
     </row>
     <row r="56" spans="2:14" ht="15" customHeight="1">
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="56"/>
-      <c r="D56" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="E56" s="62"/>
-      <c r="F56" s="61" t="s">
+      <c r="C56" s="75"/>
+      <c r="D56" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" s="81"/>
+      <c r="F56" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="67"/>
-      <c r="L56" s="68"/>
-      <c r="M56" s="67"/>
-      <c r="N56" s="68"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="84"/>
+      <c r="J56" s="81"/>
+      <c r="K56" s="86"/>
+      <c r="L56" s="87"/>
+      <c r="M56" s="86"/>
+      <c r="N56" s="87"/>
     </row>
     <row r="57" spans="2:14" ht="15" customHeight="1">
-      <c r="B57" s="57"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
-      <c r="J57" s="64"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="70"/>
-      <c r="M57" s="69"/>
-      <c r="N57" s="70"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
+      <c r="I57" s="85"/>
+      <c r="J57" s="83"/>
+      <c r="K57" s="88"/>
+      <c r="L57" s="89"/>
+      <c r="M57" s="88"/>
+      <c r="N57" s="89"/>
     </row>
     <row r="58" spans="2:14" ht="15" customHeight="1">
-      <c r="B58" s="57"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="61" t="s">
+      <c r="B58" s="76"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="E58" s="62"/>
-      <c r="F58" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="65"/>
-      <c r="J58" s="62"/>
-      <c r="K58" s="71"/>
-      <c r="L58" s="72"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" s="84"/>
+      <c r="H58" s="84"/>
+      <c r="I58" s="84"/>
+      <c r="J58" s="81"/>
+      <c r="K58" s="90"/>
+      <c r="L58" s="91"/>
       <c r="M58" s="27"/>
       <c r="N58" s="28"/>
     </row>
     <row r="59" spans="2:14" ht="15" customHeight="1">
-      <c r="B59" s="59"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="73" t="s">
+      <c r="B59" s="78"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="85"/>
+      <c r="J59" s="83"/>
+      <c r="K59" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="L59" s="74"/>
+      <c r="L59" s="93"/>
       <c r="M59" s="21"/>
       <c r="N59" s="22"/>
     </row>
     <row r="60" spans="2:14" ht="15" customHeight="1">
-      <c r="B60" s="55" t="s">
+      <c r="B60" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C60" s="56"/>
-      <c r="D60" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="E60" s="62"/>
-      <c r="F60" s="61" t="s">
+      <c r="C60" s="75"/>
+      <c r="D60" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" s="81"/>
+      <c r="F60" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="G60" s="65"/>
-      <c r="H60" s="65"/>
-      <c r="I60" s="65"/>
-      <c r="J60" s="62"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="68"/>
-      <c r="M60" s="67"/>
-      <c r="N60" s="68"/>
+      <c r="G60" s="84"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="84"/>
+      <c r="J60" s="81"/>
+      <c r="K60" s="86"/>
+      <c r="L60" s="87"/>
+      <c r="M60" s="86"/>
+      <c r="N60" s="87"/>
     </row>
     <row r="61" spans="2:14" ht="15" customHeight="1">
-      <c r="B61" s="57"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="66"/>
-      <c r="I61" s="66"/>
-      <c r="J61" s="64"/>
-      <c r="K61" s="69"/>
-      <c r="L61" s="70"/>
-      <c r="M61" s="69"/>
-      <c r="N61" s="70"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="82"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="85"/>
+      <c r="I61" s="85"/>
+      <c r="J61" s="83"/>
+      <c r="K61" s="88"/>
+      <c r="L61" s="89"/>
+      <c r="M61" s="88"/>
+      <c r="N61" s="89"/>
     </row>
     <row r="62" spans="2:14" ht="15" customHeight="1">
-      <c r="B62" s="57"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="61" t="s">
+      <c r="B62" s="76"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="E62" s="62"/>
-      <c r="F62" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="62"/>
-      <c r="K62" s="71"/>
-      <c r="L62" s="72"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="G62" s="84"/>
+      <c r="H62" s="84"/>
+      <c r="I62" s="84"/>
+      <c r="J62" s="81"/>
+      <c r="K62" s="90"/>
+      <c r="L62" s="91"/>
       <c r="M62" s="27"/>
       <c r="N62" s="28"/>
     </row>
     <row r="63" spans="2:14" ht="15" customHeight="1">
-      <c r="B63" s="59"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="G63" s="66"/>
-      <c r="H63" s="66"/>
-      <c r="I63" s="66"/>
-      <c r="J63" s="64"/>
-      <c r="K63" s="73" t="s">
+      <c r="B63" s="78"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="G63" s="85"/>
+      <c r="H63" s="85"/>
+      <c r="I63" s="85"/>
+      <c r="J63" s="83"/>
+      <c r="K63" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="L63" s="74"/>
+      <c r="L63" s="93"/>
       <c r="M63" s="21"/>
       <c r="N63" s="22"/>
     </row>
     <row r="64" spans="2:14" ht="15" customHeight="1">
-      <c r="B64" s="55" t="s">
+      <c r="B64" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="56"/>
-      <c r="D64" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="E64" s="62"/>
-      <c r="F64" s="61" t="s">
+      <c r="C64" s="75"/>
+      <c r="D64" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E64" s="81"/>
+      <c r="F64" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="62"/>
-      <c r="K64" s="67"/>
-      <c r="L64" s="68"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="68"/>
+      <c r="G64" s="84"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="84"/>
+      <c r="J64" s="81"/>
+      <c r="K64" s="86"/>
+      <c r="L64" s="87"/>
+      <c r="M64" s="86"/>
+      <c r="N64" s="87"/>
     </row>
     <row r="65" spans="2:14" ht="15" customHeight="1">
-      <c r="B65" s="57"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="64"/>
-      <c r="K65" s="69"/>
-      <c r="L65" s="70"/>
-      <c r="M65" s="69"/>
-      <c r="N65" s="70"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="85"/>
+      <c r="I65" s="85"/>
+      <c r="J65" s="83"/>
+      <c r="K65" s="88"/>
+      <c r="L65" s="89"/>
+      <c r="M65" s="88"/>
+      <c r="N65" s="89"/>
     </row>
     <row r="66" spans="2:14" ht="15" customHeight="1">
-      <c r="B66" s="57"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="61" t="s">
+      <c r="B66" s="76"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="E66" s="62"/>
-      <c r="F66" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="62"/>
-      <c r="K66" s="71"/>
-      <c r="L66" s="72"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="G66" s="84"/>
+      <c r="H66" s="84"/>
+      <c r="I66" s="84"/>
+      <c r="J66" s="81"/>
+      <c r="K66" s="90"/>
+      <c r="L66" s="91"/>
       <c r="M66" s="27"/>
       <c r="N66" s="28"/>
     </row>
     <row r="67" spans="2:14" ht="15" customHeight="1">
-      <c r="B67" s="59"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="64"/>
-      <c r="K67" s="73" t="s">
+      <c r="B67" s="78"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="G67" s="85"/>
+      <c r="H67" s="85"/>
+      <c r="I67" s="85"/>
+      <c r="J67" s="83"/>
+      <c r="K67" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="L67" s="74"/>
+      <c r="L67" s="93"/>
       <c r="M67" s="21"/>
       <c r="N67" s="22"/>
     </row>
     <row r="68" spans="2:14" ht="15" customHeight="1">
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="56"/>
-      <c r="D68" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="E68" s="62"/>
-      <c r="F68" s="61" t="s">
+      <c r="C68" s="75"/>
+      <c r="D68" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" s="81"/>
+      <c r="F68" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="65"/>
-      <c r="J68" s="62"/>
-      <c r="K68" s="67"/>
-      <c r="L68" s="68"/>
-      <c r="M68" s="67"/>
-      <c r="N68" s="68"/>
+      <c r="G68" s="84"/>
+      <c r="H68" s="84"/>
+      <c r="I68" s="84"/>
+      <c r="J68" s="81"/>
+      <c r="K68" s="86"/>
+      <c r="L68" s="87"/>
+      <c r="M68" s="86"/>
+      <c r="N68" s="87"/>
     </row>
     <row r="69" spans="2:14" ht="15" customHeight="1">
-      <c r="B69" s="57"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="64"/>
-      <c r="K69" s="69"/>
-      <c r="L69" s="70"/>
-      <c r="M69" s="69"/>
-      <c r="N69" s="70"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="82"/>
+      <c r="E69" s="83"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="85"/>
+      <c r="I69" s="85"/>
+      <c r="J69" s="83"/>
+      <c r="K69" s="88"/>
+      <c r="L69" s="89"/>
+      <c r="M69" s="88"/>
+      <c r="N69" s="89"/>
     </row>
     <row r="70" spans="2:14" ht="15" customHeight="1">
-      <c r="B70" s="57"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="61" t="s">
+      <c r="B70" s="76"/>
+      <c r="C70" s="77"/>
+      <c r="D70" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="E70" s="62"/>
-      <c r="F70" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="G70" s="65"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="65"/>
-      <c r="J70" s="62"/>
-      <c r="K70" s="71"/>
-      <c r="L70" s="72"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="G70" s="84"/>
+      <c r="H70" s="84"/>
+      <c r="I70" s="84"/>
+      <c r="J70" s="81"/>
+      <c r="K70" s="90"/>
+      <c r="L70" s="91"/>
       <c r="M70" s="27"/>
       <c r="N70" s="28"/>
     </row>
     <row r="71" spans="2:14" ht="15" customHeight="1">
-      <c r="B71" s="59"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="66"/>
-      <c r="J71" s="64"/>
-      <c r="K71" s="73" t="s">
+      <c r="B71" s="78"/>
+      <c r="C71" s="79"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="G71" s="85"/>
+      <c r="H71" s="85"/>
+      <c r="I71" s="85"/>
+      <c r="J71" s="83"/>
+      <c r="K71" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="L71" s="74"/>
+      <c r="L71" s="93"/>
       <c r="M71" s="21"/>
       <c r="N71" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="K70:L71"/>
-    <mergeCell ref="K64:L65"/>
-    <mergeCell ref="M64:N65"/>
-    <mergeCell ref="D66:E67"/>
-    <mergeCell ref="K66:L67"/>
-    <mergeCell ref="D68:E69"/>
-    <mergeCell ref="K68:L69"/>
-    <mergeCell ref="M68:N69"/>
-    <mergeCell ref="B64:C67"/>
-    <mergeCell ref="F64:J65"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="B68:C71"/>
-    <mergeCell ref="F68:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="D64:E65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="D70:E71"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="M38:N39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="B38:C39"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M40:N41"/>
+    <mergeCell ref="D42:E43"/>
+    <mergeCell ref="B56:C59"/>
+    <mergeCell ref="F56:J57"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="K42:L43"/>
+    <mergeCell ref="D44:E45"/>
+    <mergeCell ref="K44:L45"/>
+    <mergeCell ref="B40:C43"/>
+    <mergeCell ref="B44:C47"/>
+    <mergeCell ref="F44:J45"/>
+    <mergeCell ref="B48:C51"/>
+    <mergeCell ref="F48:J49"/>
+    <mergeCell ref="B52:C55"/>
+    <mergeCell ref="F52:J53"/>
+    <mergeCell ref="K40:L41"/>
+    <mergeCell ref="D54:E55"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="K54:L55"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="K48:L49"/>
+    <mergeCell ref="D50:E51"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="D40:E41"/>
+    <mergeCell ref="F40:J41"/>
+    <mergeCell ref="M44:N45"/>
+    <mergeCell ref="D46:E47"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="K46:L47"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="M48:N49"/>
+    <mergeCell ref="K50:L51"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="D52:E53"/>
+    <mergeCell ref="K52:L53"/>
+    <mergeCell ref="M52:N53"/>
     <mergeCell ref="M56:N57"/>
     <mergeCell ref="D58:E59"/>
     <mergeCell ref="F58:J58"/>
@@ -5316,61 +5343,24 @@
     <mergeCell ref="K62:L63"/>
     <mergeCell ref="F63:J63"/>
     <mergeCell ref="K56:L57"/>
-    <mergeCell ref="M48:N49"/>
-    <mergeCell ref="K50:L51"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="D52:E53"/>
-    <mergeCell ref="K52:L53"/>
-    <mergeCell ref="M52:N53"/>
-    <mergeCell ref="M44:N45"/>
-    <mergeCell ref="D46:E47"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="K46:L47"/>
-    <mergeCell ref="F47:J47"/>
-    <mergeCell ref="K40:L41"/>
-    <mergeCell ref="D54:E55"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="K54:L55"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="K48:L49"/>
-    <mergeCell ref="D50:E51"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="D40:E41"/>
-    <mergeCell ref="F40:J41"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M40:N41"/>
-    <mergeCell ref="D42:E43"/>
-    <mergeCell ref="B56:C59"/>
-    <mergeCell ref="F56:J57"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="K42:L43"/>
-    <mergeCell ref="D44:E45"/>
-    <mergeCell ref="K44:L45"/>
-    <mergeCell ref="B40:C43"/>
-    <mergeCell ref="B44:C47"/>
-    <mergeCell ref="F44:J45"/>
-    <mergeCell ref="B48:C51"/>
-    <mergeCell ref="F48:J49"/>
-    <mergeCell ref="B52:C55"/>
-    <mergeCell ref="F52:J53"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="M38:N39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="B38:C39"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="B64:C67"/>
+    <mergeCell ref="F64:J65"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="B68:C71"/>
+    <mergeCell ref="F68:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="D64:E65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="D70:E71"/>
+    <mergeCell ref="K70:L71"/>
+    <mergeCell ref="K64:L65"/>
+    <mergeCell ref="M64:N65"/>
+    <mergeCell ref="D66:E67"/>
+    <mergeCell ref="K66:L67"/>
+    <mergeCell ref="D68:E69"/>
+    <mergeCell ref="K68:L69"/>
+    <mergeCell ref="M68:N69"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5387,13 +5377,13 @@
       <selection activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="2" customWidth="1"/>
-    <col min="2" max="14" width="6.1640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.796875" style="2" customWidth="1"/>
+    <col min="2" max="14" width="6.1328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.796875" style="2" customWidth="1"/>
     <col min="16" max="27" width="8" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="12.5" style="2"/>
+    <col min="28" max="16384" width="12.46484375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="21" customHeight="1">
@@ -5425,21 +5415,21 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="2:27" ht="30.75" customHeight="1">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="92"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -5459,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
@@ -5470,7 +5460,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K3" s="119"/>
       <c r="L3" s="119"/>
@@ -6327,31 +6317,31 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="2:27" ht="33" customHeight="1">
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="84" t="s">
+      <c r="C33" s="68"/>
+      <c r="D33" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="85"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="84" t="s">
+      <c r="H33" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="84" t="s">
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="M33" s="86"/>
-      <c r="N33" s="85"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="68"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -6366,29 +6356,29 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="2:27" ht="36" customHeight="1">
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="111"/>
-      <c r="D34" s="110" t="s">
+      <c r="C34" s="115"/>
+      <c r="D34" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="111"/>
+      <c r="E34" s="115"/>
       <c r="F34" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="112" t="s">
+      <c r="H34" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="111"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="115"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
@@ -6404,29 +6394,29 @@
       <c r="AA34" s="13"/>
     </row>
     <row r="35" spans="2:27" ht="36" customHeight="1">
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="111"/>
-      <c r="D35" s="110" t="s">
+      <c r="C35" s="115"/>
+      <c r="D35" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="111"/>
+      <c r="E35" s="115"/>
       <c r="F35" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="112" t="s">
+      <c r="H35" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="113"/>
-      <c r="N35" s="111"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="115"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -6442,29 +6432,29 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="2:27" ht="36" customHeight="1">
-      <c r="B36" s="110" t="s">
+      <c r="B36" s="114" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="115"/>
+      <c r="D36" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="C36" s="111"/>
-      <c r="D36" s="110" t="s">
-        <v>151</v>
-      </c>
-      <c r="E36" s="111"/>
+      <c r="E36" s="115"/>
       <c r="F36" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H36" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="112"/>
-      <c r="M36" s="113"/>
-      <c r="N36" s="111"/>
+      <c r="H36" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="I36" s="117"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="115"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -6480,29 +6470,29 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="2:27" ht="36" customHeight="1">
-      <c r="B37" s="110" t="s">
+      <c r="B37" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="111"/>
-      <c r="D37" s="110" t="s">
+      <c r="C37" s="115"/>
+      <c r="D37" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="111"/>
+      <c r="E37" s="115"/>
       <c r="F37" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="112"/>
-      <c r="M37" s="113"/>
-      <c r="N37" s="111"/>
+      <c r="H37" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="I37" s="117"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="117"/>
+      <c r="N37" s="115"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -6518,29 +6508,29 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="2:27" ht="36" customHeight="1">
-      <c r="B38" s="110" t="s">
+      <c r="B38" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="111"/>
-      <c r="D38" s="110" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" s="111"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" s="115"/>
       <c r="F38" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H38" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="112"/>
-      <c r="M38" s="113"/>
-      <c r="N38" s="111"/>
+      <c r="H38" s="116" t="s">
+        <v>154</v>
+      </c>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="115"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -6556,29 +6546,29 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="2:27" ht="36" customHeight="1">
-      <c r="B39" s="110" t="s">
+      <c r="B39" s="114" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="115"/>
+      <c r="D39" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="C39" s="111"/>
-      <c r="D39" s="110" t="s">
-        <v>157</v>
-      </c>
-      <c r="E39" s="111"/>
+      <c r="E39" s="115"/>
       <c r="F39" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H39" s="112" t="s">
-        <v>158</v>
-      </c>
-      <c r="I39" s="113"/>
-      <c r="J39" s="113"/>
-      <c r="K39" s="111"/>
-      <c r="L39" s="112"/>
-      <c r="M39" s="113"/>
-      <c r="N39" s="111"/>
+      <c r="H39" s="116" t="s">
+        <v>157</v>
+      </c>
+      <c r="I39" s="117"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="115"/>
+      <c r="L39" s="116"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="115"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -6652,29 +6642,29 @@
       <c r="AA41" s="1"/>
     </row>
     <row r="42" spans="2:27" ht="19.5" customHeight="1">
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="81"/>
-      <c r="D42" s="84" t="s">
+      <c r="C42" s="71"/>
+      <c r="D42" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="85"/>
-      <c r="F42" s="84" t="s">
+      <c r="E42" s="68"/>
+      <c r="F42" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="84" t="s">
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="L42" s="85"/>
-      <c r="M42" s="80" t="s">
+      <c r="L42" s="68"/>
+      <c r="M42" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="N42" s="81"/>
+      <c r="N42" s="71"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -6690,25 +6680,25 @@
       <c r="AA42" s="1"/>
     </row>
     <row r="43" spans="2:27" ht="19.5" customHeight="1">
-      <c r="B43" s="82"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="84" t="s">
+      <c r="B43" s="72"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="85"/>
-      <c r="F43" s="84" t="s">
+      <c r="E43" s="68"/>
+      <c r="F43" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="84" t="s">
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="L43" s="85"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="83"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="73"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -6725,15 +6715,15 @@
     </row>
     <row r="44" spans="2:27" ht="19.5" customHeight="1">
       <c r="B44" s="94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C44" s="95"/>
       <c r="D44" s="100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E44" s="101"/>
       <c r="F44" s="100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G44" s="104"/>
       <c r="H44" s="104"/>
@@ -6780,14 +6770,14 @@
       </c>
       <c r="E46" s="101"/>
       <c r="F46" s="100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G46" s="104"/>
       <c r="H46" s="104"/>
       <c r="I46" s="104"/>
       <c r="J46" s="101"/>
-      <c r="K46" s="114"/>
-      <c r="L46" s="115"/>
+      <c r="K46" s="110"/>
+      <c r="L46" s="111"/>
       <c r="M46" s="38"/>
       <c r="N46" s="39"/>
     </row>
@@ -6797,22 +6787,22 @@
       <c r="D47" s="102"/>
       <c r="E47" s="103"/>
       <c r="F47" s="102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G47" s="105"/>
       <c r="H47" s="105"/>
       <c r="I47" s="105"/>
       <c r="J47" s="103"/>
-      <c r="K47" s="116" t="s">
-        <v>163</v>
-      </c>
-      <c r="L47" s="117"/>
+      <c r="K47" s="112" t="s">
+        <v>162</v>
+      </c>
+      <c r="L47" s="113"/>
       <c r="M47" s="40"/>
       <c r="N47" s="41"/>
     </row>
     <row r="48" spans="2:27" ht="15" customHeight="1">
       <c r="B48" s="94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C48" s="95"/>
       <c r="D48" s="100" t="s">
@@ -6820,7 +6810,7 @@
       </c>
       <c r="E48" s="101"/>
       <c r="F48" s="100" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G48" s="104"/>
       <c r="H48" s="104"/>
@@ -6854,14 +6844,14 @@
       </c>
       <c r="E50" s="101"/>
       <c r="F50" s="100" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G50" s="104"/>
       <c r="H50" s="104"/>
       <c r="I50" s="104"/>
       <c r="J50" s="101"/>
-      <c r="K50" s="114"/>
-      <c r="L50" s="115"/>
+      <c r="K50" s="110"/>
+      <c r="L50" s="111"/>
       <c r="M50" s="38"/>
       <c r="N50" s="39"/>
     </row>
@@ -6871,30 +6861,30 @@
       <c r="D51" s="102"/>
       <c r="E51" s="103"/>
       <c r="F51" s="102" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G51" s="105"/>
       <c r="H51" s="105"/>
       <c r="I51" s="105"/>
       <c r="J51" s="103"/>
-      <c r="K51" s="116" t="s">
+      <c r="K51" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="L51" s="117"/>
+      <c r="L51" s="113"/>
       <c r="M51" s="40"/>
       <c r="N51" s="41"/>
     </row>
     <row r="52" spans="2:14" ht="15" customHeight="1">
       <c r="B52" s="94" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C52" s="95"/>
       <c r="D52" s="100" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E52" s="101"/>
       <c r="F52" s="100" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G52" s="104"/>
       <c r="H52" s="104"/>
@@ -6934,8 +6924,8 @@
       <c r="H54" s="104"/>
       <c r="I54" s="104"/>
       <c r="J54" s="101"/>
-      <c r="K54" s="114"/>
-      <c r="L54" s="115"/>
+      <c r="K54" s="110"/>
+      <c r="L54" s="111"/>
       <c r="M54" s="38"/>
       <c r="N54" s="39"/>
     </row>
@@ -6945,30 +6935,30 @@
       <c r="D55" s="102"/>
       <c r="E55" s="103"/>
       <c r="F55" s="102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G55" s="105"/>
       <c r="H55" s="105"/>
       <c r="I55" s="105"/>
       <c r="J55" s="103"/>
-      <c r="K55" s="116" t="s">
+      <c r="K55" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="L55" s="117"/>
+      <c r="L55" s="113"/>
       <c r="M55" s="40"/>
       <c r="N55" s="41"/>
     </row>
     <row r="56" spans="2:14" ht="15" customHeight="1">
       <c r="B56" s="94" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C56" s="95"/>
       <c r="D56" s="100" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E56" s="101"/>
       <c r="F56" s="100" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G56" s="104"/>
       <c r="H56" s="104"/>
@@ -7008,8 +6998,8 @@
       <c r="H58" s="104"/>
       <c r="I58" s="104"/>
       <c r="J58" s="101"/>
-      <c r="K58" s="114"/>
-      <c r="L58" s="115"/>
+      <c r="K58" s="110"/>
+      <c r="L58" s="111"/>
       <c r="M58" s="38"/>
       <c r="N58" s="39"/>
     </row>
@@ -7019,16 +7009,16 @@
       <c r="D59" s="102"/>
       <c r="E59" s="103"/>
       <c r="F59" s="102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G59" s="105"/>
       <c r="H59" s="105"/>
       <c r="I59" s="105"/>
       <c r="J59" s="103"/>
-      <c r="K59" s="116" t="s">
+      <c r="K59" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="L59" s="117"/>
+      <c r="L59" s="113"/>
       <c r="M59" s="40"/>
       <c r="N59" s="41"/>
     </row>
@@ -7038,18 +7028,18 @@
       </c>
       <c r="C60" s="95"/>
       <c r="D60" s="100" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E60" s="101"/>
       <c r="F60" s="100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G60" s="104"/>
       <c r="H60" s="104"/>
       <c r="I60" s="104"/>
       <c r="J60" s="101"/>
       <c r="K60" s="106" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L60" s="107"/>
       <c r="M60" s="106"/>
@@ -7084,10 +7074,10 @@
       <c r="H62" s="104"/>
       <c r="I62" s="104"/>
       <c r="J62" s="101"/>
-      <c r="K62" s="114" t="s">
+      <c r="K62" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="L62" s="115"/>
+      <c r="L62" s="111"/>
       <c r="M62" s="38"/>
       <c r="N62" s="39"/>
     </row>
@@ -7097,20 +7087,20 @@
       <c r="D63" s="102"/>
       <c r="E63" s="103"/>
       <c r="F63" s="102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G63" s="105"/>
       <c r="H63" s="105"/>
       <c r="I63" s="105"/>
       <c r="J63" s="103"/>
-      <c r="K63" s="116"/>
-      <c r="L63" s="117"/>
+      <c r="K63" s="112"/>
+      <c r="L63" s="113"/>
       <c r="M63" s="40"/>
       <c r="N63" s="41"/>
     </row>
     <row r="64" spans="2:14" ht="15" customHeight="1">
       <c r="B64" s="94" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C64" s="95"/>
       <c r="D64" s="100" t="s">
@@ -7162,10 +7152,10 @@
       <c r="H66" s="104"/>
       <c r="I66" s="104"/>
       <c r="J66" s="101"/>
-      <c r="K66" s="114" t="s">
+      <c r="K66" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="L66" s="115"/>
+      <c r="L66" s="111"/>
       <c r="M66" s="38"/>
       <c r="N66" s="39"/>
     </row>
@@ -7175,14 +7165,14 @@
       <c r="D67" s="102"/>
       <c r="E67" s="103"/>
       <c r="F67" s="102" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G67" s="105"/>
       <c r="H67" s="105"/>
       <c r="I67" s="105"/>
       <c r="J67" s="103"/>
-      <c r="K67" s="116"/>
-      <c r="L67" s="117"/>
+      <c r="K67" s="112"/>
+      <c r="L67" s="113"/>
       <c r="M67" s="40"/>
       <c r="N67" s="41"/>
     </row>
@@ -7238,8 +7228,8 @@
       <c r="H70" s="104"/>
       <c r="I70" s="104"/>
       <c r="J70" s="101"/>
-      <c r="K70" s="114"/>
-      <c r="L70" s="115"/>
+      <c r="K70" s="110"/>
+      <c r="L70" s="111"/>
       <c r="M70" s="38"/>
       <c r="N70" s="39"/>
     </row>
@@ -7249,14 +7239,14 @@
       <c r="D71" s="102"/>
       <c r="E71" s="103"/>
       <c r="F71" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G71" s="105"/>
       <c r="H71" s="105"/>
       <c r="I71" s="105"/>
       <c r="J71" s="103"/>
-      <c r="K71" s="116"/>
-      <c r="L71" s="117"/>
+      <c r="K71" s="112"/>
+      <c r="L71" s="113"/>
       <c r="M71" s="40"/>
       <c r="N71" s="41"/>
     </row>
@@ -7277,7 +7267,7 @@
       <c r="I72" s="104"/>
       <c r="J72" s="101"/>
       <c r="K72" s="106" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L72" s="107"/>
       <c r="M72" s="106"/>
@@ -7312,10 +7302,10 @@
       <c r="H74" s="104"/>
       <c r="I74" s="104"/>
       <c r="J74" s="101"/>
-      <c r="K74" s="114" t="s">
+      <c r="K74" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="L74" s="115"/>
+      <c r="L74" s="111"/>
       <c r="M74" s="38"/>
       <c r="N74" s="39"/>
     </row>
@@ -7325,46 +7315,78 @@
       <c r="D75" s="102"/>
       <c r="E75" s="103"/>
       <c r="F75" s="102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G75" s="105"/>
       <c r="H75" s="105"/>
       <c r="I75" s="105"/>
       <c r="J75" s="103"/>
-      <c r="K75" s="116"/>
-      <c r="L75" s="117"/>
+      <c r="K75" s="112"/>
+      <c r="L75" s="113"/>
       <c r="M75" s="40"/>
       <c r="N75" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="B72:C75"/>
-    <mergeCell ref="D72:E73"/>
-    <mergeCell ref="F72:J73"/>
-    <mergeCell ref="K72:L73"/>
-    <mergeCell ref="M72:N73"/>
-    <mergeCell ref="D74:E75"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="K74:L75"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="B64:C67"/>
-    <mergeCell ref="D64:E65"/>
-    <mergeCell ref="F64:J65"/>
-    <mergeCell ref="K64:L65"/>
-    <mergeCell ref="M64:N65"/>
-    <mergeCell ref="D66:E67"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="K66:L67"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="B44:C47"/>
+    <mergeCell ref="D44:E45"/>
+    <mergeCell ref="F44:J45"/>
+    <mergeCell ref="K44:L45"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N43"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="D50:E51"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="K50:L51"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="B52:C55"/>
+    <mergeCell ref="D52:E53"/>
+    <mergeCell ref="F52:J53"/>
+    <mergeCell ref="K52:L53"/>
+    <mergeCell ref="M44:N45"/>
+    <mergeCell ref="D46:E47"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="K46:L47"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="B48:C51"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="F48:J49"/>
+    <mergeCell ref="K48:L49"/>
+    <mergeCell ref="M48:N49"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="K58:L59"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="B60:C63"/>
+    <mergeCell ref="D60:E61"/>
+    <mergeCell ref="F60:J61"/>
+    <mergeCell ref="K60:L61"/>
+    <mergeCell ref="M52:N53"/>
+    <mergeCell ref="D54:E55"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="K54:L55"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="B56:C59"/>
+    <mergeCell ref="D56:E57"/>
+    <mergeCell ref="F56:J57"/>
+    <mergeCell ref="K56:L57"/>
+    <mergeCell ref="M56:N57"/>
     <mergeCell ref="D70:E71"/>
     <mergeCell ref="F70:J70"/>
     <mergeCell ref="K70:L71"/>
@@ -7389,65 +7411,33 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:N37"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="K58:L59"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="B60:C63"/>
-    <mergeCell ref="D60:E61"/>
-    <mergeCell ref="F60:J61"/>
-    <mergeCell ref="K60:L61"/>
-    <mergeCell ref="M52:N53"/>
-    <mergeCell ref="D54:E55"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="K54:L55"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="B56:C59"/>
-    <mergeCell ref="D56:E57"/>
-    <mergeCell ref="F56:J57"/>
-    <mergeCell ref="K56:L57"/>
-    <mergeCell ref="M56:N57"/>
-    <mergeCell ref="D50:E51"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="K50:L51"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="B52:C55"/>
-    <mergeCell ref="D52:E53"/>
-    <mergeCell ref="F52:J53"/>
-    <mergeCell ref="K52:L53"/>
-    <mergeCell ref="M44:N45"/>
-    <mergeCell ref="D46:E47"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="K46:L47"/>
-    <mergeCell ref="F47:J47"/>
-    <mergeCell ref="B48:C51"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="F48:J49"/>
-    <mergeCell ref="K48:L49"/>
-    <mergeCell ref="M48:N49"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="B44:C47"/>
-    <mergeCell ref="D44:E45"/>
-    <mergeCell ref="F44:J45"/>
-    <mergeCell ref="K44:L45"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N43"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B64:C67"/>
+    <mergeCell ref="D64:E65"/>
+    <mergeCell ref="F64:J65"/>
+    <mergeCell ref="K64:L65"/>
+    <mergeCell ref="M64:N65"/>
+    <mergeCell ref="D66:E67"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="K66:L67"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="B72:C75"/>
+    <mergeCell ref="D72:E73"/>
+    <mergeCell ref="F72:J73"/>
+    <mergeCell ref="K72:L73"/>
+    <mergeCell ref="M72:N73"/>
+    <mergeCell ref="D74:E75"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="K74:L75"/>
+    <mergeCell ref="F75:J75"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7464,13 +7454,13 @@
       <selection activeCell="M52" sqref="M52:N53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="2" customWidth="1"/>
-    <col min="2" max="14" width="6.1640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.796875" style="2" customWidth="1"/>
+    <col min="2" max="14" width="6.1328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.796875" style="2" customWidth="1"/>
     <col min="16" max="27" width="8" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="12.5" style="2"/>
+    <col min="28" max="16384" width="12.46484375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="21" customHeight="1">
@@ -7502,21 +7492,21 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="2:27" ht="30.75" customHeight="1">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="92"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -7536,7 +7526,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
@@ -7547,7 +7537,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K3" s="119"/>
       <c r="L3" s="119"/>
@@ -8140,192 +8130,192 @@
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="2:16" ht="33" customHeight="1">
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="84" t="s">
+      <c r="C33" s="68"/>
+      <c r="D33" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="85"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="84" t="s">
+      <c r="H33" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="84" t="s">
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="M33" s="86"/>
-      <c r="N33" s="85"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="68"/>
       <c r="P33" s="1"/>
     </row>
     <row r="34" spans="2:16" ht="37" customHeight="1">
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="111"/>
-      <c r="D34" s="110" t="s">
+      <c r="C34" s="115"/>
+      <c r="D34" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="111"/>
+      <c r="E34" s="115"/>
       <c r="F34" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="112" t="s">
+      <c r="H34" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="111"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="115"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
     </row>
     <row r="35" spans="2:16" ht="37" customHeight="1">
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="111"/>
-      <c r="D35" s="110" t="s">
+      <c r="C35" s="115"/>
+      <c r="D35" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="111"/>
+      <c r="E35" s="115"/>
       <c r="F35" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="112" t="s">
+      <c r="H35" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="113"/>
-      <c r="N35" s="111"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="115"/>
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
     </row>
     <row r="36" spans="2:16" ht="37" customHeight="1">
-      <c r="B36" s="110" t="s">
+      <c r="B36" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="111"/>
-      <c r="D36" s="110" t="s">
-        <v>181</v>
-      </c>
-      <c r="E36" s="111"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="114" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" s="115"/>
       <c r="F36" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H36" s="112" t="s">
-        <v>182</v>
-      </c>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="110"/>
-      <c r="M36" s="113"/>
-      <c r="N36" s="111"/>
+      <c r="H36" s="116" t="s">
+        <v>181</v>
+      </c>
+      <c r="I36" s="117"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="115"/>
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
     </row>
     <row r="37" spans="2:16" ht="37" customHeight="1">
-      <c r="B37" s="110" t="s">
+      <c r="B37" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="111"/>
-      <c r="D37" s="110" t="s">
+      <c r="C37" s="115"/>
+      <c r="D37" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="111"/>
+      <c r="E37" s="115"/>
       <c r="F37" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="112" t="s">
-        <v>183</v>
-      </c>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="110"/>
-      <c r="M37" s="113"/>
-      <c r="N37" s="111"/>
+      <c r="H37" s="116" t="s">
+        <v>182</v>
+      </c>
+      <c r="I37" s="117"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="114"/>
+      <c r="M37" s="117"/>
+      <c r="N37" s="115"/>
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
     </row>
     <row r="38" spans="2:16" ht="37" customHeight="1">
-      <c r="B38" s="110" t="s">
+      <c r="B38" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="111"/>
-      <c r="D38" s="110" t="s">
-        <v>184</v>
-      </c>
-      <c r="E38" s="111"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="114" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" s="115"/>
       <c r="F38" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H38" s="112" t="s">
+      <c r="H38" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="113"/>
-      <c r="N38" s="111"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="115"/>
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
     </row>
     <row r="39" spans="2:16" ht="36" customHeight="1">
-      <c r="B39" s="110" t="s">
-        <v>156</v>
-      </c>
-      <c r="C39" s="111"/>
-      <c r="D39" s="110" t="s">
-        <v>185</v>
-      </c>
-      <c r="E39" s="111"/>
+      <c r="B39" s="114" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="115"/>
+      <c r="D39" s="114" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="115"/>
       <c r="F39" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H39" s="112" t="s">
-        <v>186</v>
-      </c>
-      <c r="I39" s="113"/>
-      <c r="J39" s="113"/>
-      <c r="K39" s="111"/>
-      <c r="L39" s="110"/>
-      <c r="M39" s="113"/>
-      <c r="N39" s="111"/>
+      <c r="H39" s="116" t="s">
+        <v>185</v>
+      </c>
+      <c r="I39" s="117"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="115"/>
+      <c r="L39" s="114"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="115"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
@@ -8366,52 +8356,52 @@
       <c r="P41" s="1"/>
     </row>
     <row r="42" spans="2:16" ht="19.5" customHeight="1">
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="81"/>
-      <c r="D42" s="84" t="s">
+      <c r="C42" s="71"/>
+      <c r="D42" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="85"/>
-      <c r="F42" s="84" t="s">
+      <c r="E42" s="68"/>
+      <c r="F42" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="84" t="s">
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="L42" s="85"/>
-      <c r="M42" s="80" t="s">
+      <c r="L42" s="68"/>
+      <c r="M42" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="N42" s="81"/>
+      <c r="N42" s="71"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
     <row r="43" spans="2:16" ht="19.5" customHeight="1">
-      <c r="B43" s="82"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="84" t="s">
+      <c r="B43" s="72"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="85"/>
-      <c r="F43" s="84" t="s">
+      <c r="E43" s="68"/>
+      <c r="F43" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="84" t="s">
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="L43" s="85"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="83"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="73"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
@@ -8471,10 +8461,10 @@
       <c r="H46" s="104"/>
       <c r="I46" s="104"/>
       <c r="J46" s="101"/>
-      <c r="K46" s="114" t="s">
+      <c r="K46" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="L46" s="115"/>
+      <c r="L46" s="111"/>
       <c r="M46" s="38"/>
       <c r="N46" s="39"/>
     </row>
@@ -8484,14 +8474,14 @@
       <c r="D47" s="102"/>
       <c r="E47" s="103"/>
       <c r="F47" s="102" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G47" s="105"/>
       <c r="H47" s="105"/>
       <c r="I47" s="105"/>
       <c r="J47" s="103"/>
-      <c r="K47" s="116"/>
-      <c r="L47" s="117"/>
+      <c r="K47" s="112"/>
+      <c r="L47" s="113"/>
       <c r="M47" s="40"/>
       <c r="N47" s="41"/>
     </row>
@@ -8501,18 +8491,18 @@
       </c>
       <c r="C48" s="95"/>
       <c r="D48" s="100" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E48" s="101"/>
       <c r="F48" s="100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G48" s="104"/>
       <c r="H48" s="104"/>
       <c r="I48" s="104"/>
       <c r="J48" s="101"/>
       <c r="K48" s="106" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L48" s="107"/>
       <c r="M48" s="106"/>
@@ -8545,16 +8535,16 @@
       </c>
       <c r="E50" s="101"/>
       <c r="F50" s="100" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G50" s="104"/>
       <c r="H50" s="104"/>
       <c r="I50" s="104"/>
       <c r="J50" s="101"/>
-      <c r="K50" s="114" t="s">
+      <c r="K50" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="L50" s="115"/>
+      <c r="L50" s="111"/>
       <c r="M50" s="38"/>
       <c r="N50" s="39"/>
     </row>
@@ -8564,14 +8554,14 @@
       <c r="D51" s="102"/>
       <c r="E51" s="103"/>
       <c r="F51" s="102" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G51" s="105"/>
       <c r="H51" s="105"/>
       <c r="I51" s="105"/>
       <c r="J51" s="103"/>
-      <c r="K51" s="116"/>
-      <c r="L51" s="117"/>
+      <c r="K51" s="112"/>
+      <c r="L51" s="113"/>
       <c r="M51" s="40"/>
       <c r="N51" s="41"/>
     </row>
@@ -8592,7 +8582,7 @@
       <c r="I52" s="104"/>
       <c r="J52" s="101"/>
       <c r="K52" s="106" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L52" s="107"/>
       <c r="M52" s="106"/>
@@ -8625,16 +8615,16 @@
       </c>
       <c r="E54" s="101"/>
       <c r="F54" s="100" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G54" s="104"/>
       <c r="H54" s="104"/>
       <c r="I54" s="104"/>
       <c r="J54" s="101"/>
-      <c r="K54" s="114" t="s">
+      <c r="K54" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="L54" s="115"/>
+      <c r="L54" s="111"/>
       <c r="M54" s="38"/>
       <c r="N54" s="39"/>
     </row>
@@ -8644,62 +8634,25 @@
       <c r="D55" s="102"/>
       <c r="E55" s="103"/>
       <c r="F55" s="102" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G55" s="105"/>
       <c r="H55" s="105"/>
       <c r="I55" s="105"/>
       <c r="J55" s="103"/>
-      <c r="K55" s="116"/>
-      <c r="L55" s="117"/>
+      <c r="K55" s="112"/>
+      <c r="L55" s="113"/>
       <c r="M55" s="40"/>
       <c r="N55" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="K52:L53"/>
-    <mergeCell ref="M52:N53"/>
-    <mergeCell ref="D54:E55"/>
-    <mergeCell ref="K54:L55"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="K48:L49"/>
-    <mergeCell ref="M48:N49"/>
-    <mergeCell ref="D50:E51"/>
-    <mergeCell ref="K50:L51"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="B52:C55"/>
-    <mergeCell ref="D52:E53"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="B48:C51"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="F48:J49"/>
-    <mergeCell ref="F52:J53"/>
-    <mergeCell ref="B44:C47"/>
-    <mergeCell ref="D44:E45"/>
-    <mergeCell ref="F44:J45"/>
-    <mergeCell ref="K44:L45"/>
-    <mergeCell ref="M44:N45"/>
-    <mergeCell ref="D46:E47"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="K46:L47"/>
-    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:N33"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="H36:K36"/>
@@ -8716,12 +8669,49 @@
     <mergeCell ref="L39:N39"/>
     <mergeCell ref="F43:J43"/>
     <mergeCell ref="K43:L43"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="B44:C47"/>
+    <mergeCell ref="D44:E45"/>
+    <mergeCell ref="F44:J45"/>
+    <mergeCell ref="K44:L45"/>
+    <mergeCell ref="M44:N45"/>
+    <mergeCell ref="D46:E47"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="K46:L47"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="B52:C55"/>
+    <mergeCell ref="D52:E53"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="B48:C51"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="F48:J49"/>
+    <mergeCell ref="F52:J53"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="K48:L49"/>
+    <mergeCell ref="M48:N49"/>
+    <mergeCell ref="D50:E51"/>
+    <mergeCell ref="K50:L51"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="K52:L53"/>
+    <mergeCell ref="M52:N53"/>
+    <mergeCell ref="D54:E55"/>
+    <mergeCell ref="K54:L55"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F54:J54"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8738,12 +8728,12 @@
       <selection activeCell="K48" sqref="K48:L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="2" customWidth="1"/>
-    <col min="2" max="14" width="6.1640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="12.5" style="2"/>
+    <col min="1" max="1" width="2.796875" style="2" customWidth="1"/>
+    <col min="2" max="14" width="6.1328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.796875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="12.46484375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="21" customHeight="1">
@@ -8763,21 +8753,21 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="2:15" ht="30.75" customHeight="1">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="92"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="2:15" ht="19.5" customHeight="1">
@@ -8785,7 +8775,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
@@ -8796,7 +8786,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K3" s="119"/>
       <c r="L3" s="119"/>
@@ -9293,190 +9283,190 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="2:15" ht="33" customHeight="1">
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="84" t="s">
+      <c r="C33" s="68"/>
+      <c r="D33" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="85"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="84" t="s">
+      <c r="H33" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="84" t="s">
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="M33" s="86"/>
-      <c r="N33" s="85"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="68"/>
     </row>
     <row r="34" spans="2:15" ht="36" customHeight="1">
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="111"/>
-      <c r="D34" s="110" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="111"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="114" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="115"/>
       <c r="F34" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="112" t="s">
+      <c r="H34" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="111"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="115"/>
       <c r="O34" s="13"/>
     </row>
     <row r="35" spans="2:15" ht="36" customHeight="1">
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="111"/>
-      <c r="D35" s="110" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" s="111"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="114" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" s="115"/>
       <c r="F35" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G35" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="H35" s="112" t="s">
+      <c r="H35" s="116" t="s">
+        <v>187</v>
+      </c>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="115"/>
+      <c r="O35" s="13"/>
+    </row>
+    <row r="36" spans="2:15" ht="36" customHeight="1">
+      <c r="B36" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="115"/>
+      <c r="D36" s="114" t="s">
         <v>188</v>
       </c>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="113"/>
-      <c r="N35" s="111"/>
-      <c r="O35" s="13"/>
-    </row>
-    <row r="36" spans="2:15" ht="36" customHeight="1">
-      <c r="B36" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="111"/>
-      <c r="D36" s="110" t="s">
-        <v>189</v>
-      </c>
-      <c r="E36" s="111"/>
+      <c r="E36" s="115"/>
       <c r="F36" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G36" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H36" s="112" t="s">
-        <v>190</v>
-      </c>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="110"/>
-      <c r="M36" s="113"/>
-      <c r="N36" s="111"/>
+      <c r="H36" s="116" t="s">
+        <v>189</v>
+      </c>
+      <c r="I36" s="117"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="115"/>
       <c r="O36" s="13"/>
     </row>
     <row r="37" spans="2:15" ht="36" customHeight="1">
-      <c r="B37" s="110" t="s">
+      <c r="B37" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="111"/>
-      <c r="D37" s="110" t="s">
+      <c r="C37" s="115"/>
+      <c r="D37" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="111"/>
+      <c r="E37" s="115"/>
       <c r="F37" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G37" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="112" t="s">
+      <c r="H37" s="116" t="s">
+        <v>190</v>
+      </c>
+      <c r="I37" s="117"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="110" t="s">
-        <v>192</v>
-      </c>
-      <c r="M37" s="113"/>
-      <c r="N37" s="111"/>
+      <c r="M37" s="117"/>
+      <c r="N37" s="115"/>
       <c r="O37" s="13"/>
     </row>
     <row r="38" spans="2:15" ht="36" customHeight="1">
-      <c r="B38" s="110" t="s">
+      <c r="B38" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="111"/>
-      <c r="D38" s="110" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" s="111"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" s="115"/>
       <c r="F38" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H38" s="112" t="s">
+      <c r="H38" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="112" t="s">
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="M38" s="113"/>
-      <c r="N38" s="111"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="115"/>
       <c r="O38" s="13"/>
     </row>
     <row r="39" spans="2:15" ht="36" customHeight="1">
-      <c r="B39" s="110" t="s">
+      <c r="B39" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="111"/>
-      <c r="D39" s="110" t="s">
-        <v>193</v>
-      </c>
-      <c r="E39" s="111"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="115"/>
       <c r="F39" s="36" t="s">
         <v>45</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="112" t="s">
+      <c r="H39" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="I39" s="113"/>
-      <c r="J39" s="113"/>
-      <c r="K39" s="111"/>
-      <c r="L39" s="110"/>
-      <c r="M39" s="113"/>
-      <c r="N39" s="111"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="115"/>
+      <c r="L39" s="114"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="115"/>
       <c r="O39" s="13"/>
     </row>
     <row r="40" spans="2:15" ht="36" customHeight="1">
@@ -9514,51 +9504,51 @@
       <c r="O41" s="1"/>
     </row>
     <row r="42" spans="2:15" ht="36" customHeight="1">
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="81"/>
-      <c r="D42" s="84" t="s">
+      <c r="C42" s="71"/>
+      <c r="D42" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="85"/>
-      <c r="F42" s="84" t="s">
+      <c r="E42" s="68"/>
+      <c r="F42" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="84" t="s">
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="L42" s="85"/>
-      <c r="M42" s="80" t="s">
+      <c r="L42" s="68"/>
+      <c r="M42" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="N42" s="81"/>
+      <c r="N42" s="71"/>
       <c r="O42" s="1"/>
     </row>
     <row r="43" spans="2:15" ht="19.5" customHeight="1">
-      <c r="B43" s="82"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="84" t="s">
+      <c r="B43" s="72"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="85"/>
-      <c r="F43" s="84" t="s">
+      <c r="E43" s="68"/>
+      <c r="F43" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="84" t="s">
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="L43" s="85"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="83"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="73"/>
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="2:15" ht="19" customHeight="1">
@@ -9569,14 +9559,14 @@
       <c r="D44" s="38"/>
       <c r="E44" s="39"/>
       <c r="F44" s="106" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G44" s="122"/>
       <c r="H44" s="122"/>
       <c r="I44" s="122"/>
       <c r="J44" s="107"/>
       <c r="K44" s="106" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L44" s="107"/>
       <c r="M44" s="38"/>
@@ -9613,10 +9603,10 @@
       <c r="H46" s="122"/>
       <c r="I46" s="122"/>
       <c r="J46" s="107"/>
-      <c r="K46" s="114" t="s">
+      <c r="K46" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="L46" s="115"/>
+      <c r="L46" s="111"/>
       <c r="M46" s="38"/>
       <c r="N46" s="39"/>
       <c r="O46" s="1"/>
@@ -9627,14 +9617,14 @@
       <c r="D47" s="108"/>
       <c r="E47" s="109"/>
       <c r="F47" s="108" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G47" s="123"/>
       <c r="H47" s="123"/>
       <c r="I47" s="123"/>
       <c r="J47" s="109"/>
-      <c r="K47" s="116"/>
-      <c r="L47" s="117"/>
+      <c r="K47" s="112"/>
+      <c r="L47" s="113"/>
       <c r="M47" s="40"/>
       <c r="N47" s="41"/>
     </row>
@@ -9644,7 +9634,7 @@
       </c>
       <c r="C48" s="107"/>
       <c r="D48" s="106" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E48" s="107"/>
       <c r="F48" s="106" t="s">
@@ -9686,16 +9676,16 @@
       </c>
       <c r="E50" s="107"/>
       <c r="F50" s="106" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G50" s="122"/>
       <c r="H50" s="122"/>
       <c r="I50" s="122"/>
       <c r="J50" s="107"/>
-      <c r="K50" s="114" t="s">
+      <c r="K50" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="L50" s="115"/>
+      <c r="L50" s="111"/>
       <c r="M50" s="38"/>
       <c r="N50" s="39"/>
       <c r="O50" s="1"/>
@@ -9706,14 +9696,14 @@
       <c r="D51" s="108"/>
       <c r="E51" s="109"/>
       <c r="F51" s="108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G51" s="123"/>
       <c r="H51" s="123"/>
       <c r="I51" s="123"/>
       <c r="J51" s="109"/>
-      <c r="K51" s="116"/>
-      <c r="L51" s="117"/>
+      <c r="K51" s="112"/>
+      <c r="L51" s="113"/>
       <c r="M51" s="40"/>
       <c r="N51" s="41"/>
     </row>
@@ -9734,16 +9724,34 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K48:L49"/>
-    <mergeCell ref="B48:C51"/>
-    <mergeCell ref="D50:E51"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="K50:L51"/>
-    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="H37:K37"/>
@@ -9760,34 +9768,16 @@
     <mergeCell ref="K46:L47"/>
     <mergeCell ref="F47:J47"/>
     <mergeCell ref="F43:J43"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K48:L49"/>
+    <mergeCell ref="B48:C51"/>
+    <mergeCell ref="D50:E51"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="K50:L51"/>
+    <mergeCell ref="D48:E49"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -9804,12 +9794,12 @@
       <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="2" customWidth="1"/>
-    <col min="2" max="14" width="6.1640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="12.5" style="2"/>
+    <col min="1" max="1" width="2.796875" style="2" customWidth="1"/>
+    <col min="2" max="14" width="6.1328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.796875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="12.46484375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="21" customHeight="1">
@@ -9829,21 +9819,21 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="2:15" ht="30.75" customHeight="1">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="92"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="2:15" ht="19.5" customHeight="1">
@@ -9851,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
@@ -9862,7 +9852,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K3" s="119"/>
       <c r="L3" s="29"/>
@@ -9923,7 +9913,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
@@ -10359,138 +10349,138 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="2:15" ht="33" customHeight="1">
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="84" t="s">
+      <c r="C33" s="68"/>
+      <c r="D33" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="85"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="84" t="s">
+      <c r="H33" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="84" t="s">
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="M33" s="86"/>
-      <c r="N33" s="85"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="68"/>
     </row>
     <row r="34" spans="2:15" ht="36" customHeight="1">
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="111"/>
-      <c r="D34" s="110" t="s">
-        <v>157</v>
-      </c>
-      <c r="E34" s="111"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="114" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="115"/>
       <c r="F34" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="112" t="s">
+      <c r="H34" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="111"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="115"/>
       <c r="O34" s="13"/>
     </row>
     <row r="35" spans="2:15" ht="36" customHeight="1">
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="111"/>
-      <c r="D35" s="110" t="s">
+      <c r="C35" s="115"/>
+      <c r="D35" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="111"/>
+      <c r="E35" s="115"/>
       <c r="F35" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="112" t="s">
-        <v>229</v>
-      </c>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="110" t="s">
-        <v>192</v>
-      </c>
-      <c r="M35" s="113"/>
-      <c r="N35" s="111"/>
+      <c r="H35" s="116" t="s">
+        <v>228</v>
+      </c>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="114" t="s">
+        <v>191</v>
+      </c>
+      <c r="M35" s="117"/>
+      <c r="N35" s="115"/>
       <c r="O35" s="13"/>
     </row>
     <row r="36" spans="2:15" ht="36" customHeight="1">
-      <c r="B36" s="110" t="s">
+      <c r="B36" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="111"/>
-      <c r="D36" s="110" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" s="111"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="115"/>
       <c r="F36" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="112" t="s">
-        <v>230</v>
-      </c>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="110" t="s">
+      <c r="H36" s="116" t="s">
+        <v>229</v>
+      </c>
+      <c r="I36" s="117"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="M36" s="113"/>
-      <c r="N36" s="111"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="115"/>
       <c r="O36" s="13"/>
     </row>
     <row r="37" spans="2:15" ht="36" customHeight="1">
-      <c r="B37" s="110" t="s">
+      <c r="B37" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="111"/>
-      <c r="D37" s="110" t="s">
-        <v>193</v>
-      </c>
-      <c r="E37" s="111"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" s="115"/>
       <c r="F37" s="36" t="s">
         <v>45</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="112" t="s">
-        <v>231</v>
-      </c>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="110"/>
-      <c r="M37" s="113"/>
-      <c r="N37" s="111"/>
+      <c r="H37" s="116" t="s">
+        <v>230</v>
+      </c>
+      <c r="I37" s="117"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="114"/>
+      <c r="M37" s="117"/>
+      <c r="N37" s="115"/>
       <c r="O37" s="13"/>
     </row>
     <row r="38" spans="2:15" ht="36" customHeight="1">
@@ -10528,51 +10518,51 @@
       <c r="O39" s="13"/>
     </row>
     <row r="40" spans="2:15" ht="36" customHeight="1">
-      <c r="B40" s="80" t="s">
+      <c r="B40" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="81"/>
-      <c r="D40" s="84" t="s">
+      <c r="C40" s="71"/>
+      <c r="D40" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="85"/>
-      <c r="F40" s="84" t="s">
+      <c r="E40" s="68"/>
+      <c r="F40" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="84" t="s">
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="85"/>
-      <c r="M40" s="80" t="s">
+      <c r="L40" s="68"/>
+      <c r="M40" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="N40" s="81"/>
+      <c r="N40" s="71"/>
       <c r="O40" s="13"/>
     </row>
     <row r="41" spans="2:15" ht="36" customHeight="1">
-      <c r="B41" s="82"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="84" t="s">
+      <c r="B41" s="72"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="85"/>
-      <c r="F41" s="84" t="s">
+      <c r="E41" s="68"/>
+      <c r="F41" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="84" t="s">
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="L41" s="85"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="83"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="73"/>
       <c r="O41" s="13"/>
     </row>
     <row r="42" spans="2:15" ht="19" customHeight="1">
@@ -10583,7 +10573,7 @@
       <c r="D42" s="106"/>
       <c r="E42" s="107"/>
       <c r="F42" s="106" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G42" s="122"/>
       <c r="H42" s="122"/>
@@ -10639,7 +10629,7 @@
       <c r="D45" s="108"/>
       <c r="E45" s="109"/>
       <c r="F45" s="108" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G45" s="123"/>
       <c r="H45" s="123"/>
@@ -10656,7 +10646,7 @@
       </c>
       <c r="C46" s="107"/>
       <c r="D46" s="106" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E46" s="107"/>
       <c r="F46" s="106" t="s">
@@ -10715,7 +10705,7 @@
       <c r="D49" s="108"/>
       <c r="E49" s="109"/>
       <c r="F49" s="108" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G49" s="123"/>
       <c r="H49" s="123"/>
@@ -10728,6 +10718,40 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="B42:C45"/>
+    <mergeCell ref="D42:E43"/>
+    <mergeCell ref="F42:J43"/>
+    <mergeCell ref="K42:L43"/>
+    <mergeCell ref="D44:E45"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="K44:L45"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="B46:C49"/>
+    <mergeCell ref="D46:E47"/>
+    <mergeCell ref="F46:J47"/>
+    <mergeCell ref="K46:L47"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="K48:L49"/>
+    <mergeCell ref="F49:J49"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="H36:K36"/>
@@ -10740,40 +10764,6 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:N35"/>
-    <mergeCell ref="B46:C49"/>
-    <mergeCell ref="D46:E47"/>
-    <mergeCell ref="F46:J47"/>
-    <mergeCell ref="K46:L47"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="K48:L49"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="B42:C45"/>
-    <mergeCell ref="D42:E43"/>
-    <mergeCell ref="F42:J43"/>
-    <mergeCell ref="K42:L43"/>
-    <mergeCell ref="D44:E45"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="K44:L45"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="L33:N33"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -10790,12 +10780,12 @@
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="2" customWidth="1"/>
-    <col min="2" max="14" width="6.1640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="12.5" style="2"/>
+    <col min="1" max="1" width="2.796875" style="2" customWidth="1"/>
+    <col min="2" max="14" width="6.1328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.796875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="12.46484375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="21" customHeight="1">
@@ -10815,21 +10805,21 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="2:15" ht="30.75" customHeight="1">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="92"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="2:15" ht="19.5" customHeight="1">
@@ -10837,7 +10827,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
@@ -10848,7 +10838,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K3" s="119"/>
       <c r="L3" s="29"/>
@@ -10909,7 +10899,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
@@ -11345,264 +11335,264 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="2:15" ht="33" customHeight="1">
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="84" t="s">
+      <c r="C33" s="68"/>
+      <c r="D33" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="85"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="84" t="s">
+      <c r="H33" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="84" t="s">
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="M33" s="86"/>
-      <c r="N33" s="85"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="68"/>
     </row>
     <row r="34" spans="2:15" ht="36" customHeight="1">
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="111"/>
-      <c r="D34" s="110" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="111"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="114" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="115"/>
       <c r="F34" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="111"/>
+      <c r="H34" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="115"/>
       <c r="O34" s="13"/>
     </row>
     <row r="35" spans="2:15" ht="36" customHeight="1">
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="111"/>
-      <c r="D35" s="110" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" s="111"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="114" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" s="115"/>
       <c r="F35" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="112" t="s">
-        <v>158</v>
-      </c>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="113"/>
-      <c r="N35" s="111"/>
+      <c r="H35" s="116" t="s">
+        <v>157</v>
+      </c>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="115"/>
       <c r="O35" s="13"/>
     </row>
     <row r="36" spans="2:15" ht="36" customHeight="1">
-      <c r="B36" s="110" t="s">
+      <c r="B36" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="111"/>
-      <c r="D36" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="E36" s="111"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="115"/>
       <c r="F36" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H36" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="110"/>
-      <c r="M36" s="113"/>
-      <c r="N36" s="111"/>
+      <c r="H36" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="I36" s="117"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="115"/>
       <c r="O36" s="13"/>
     </row>
     <row r="37" spans="2:15" ht="36" customHeight="1">
-      <c r="B37" s="110" t="s">
+      <c r="B37" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="111"/>
-      <c r="D37" s="110" t="s">
+      <c r="C37" s="115"/>
+      <c r="D37" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="111"/>
+      <c r="E37" s="115"/>
       <c r="F37" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="112" t="s">
-        <v>200</v>
-      </c>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="110"/>
-      <c r="M37" s="113"/>
-      <c r="N37" s="111"/>
+      <c r="H37" s="116" t="s">
+        <v>199</v>
+      </c>
+      <c r="I37" s="117"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="114"/>
+      <c r="M37" s="117"/>
+      <c r="N37" s="115"/>
       <c r="O37" s="13"/>
     </row>
     <row r="38" spans="2:15" ht="36" customHeight="1">
-      <c r="B38" s="110" t="s">
+      <c r="B38" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="111"/>
-      <c r="D38" s="110" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" s="111"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" s="115"/>
       <c r="F38" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H38" s="112" t="s">
-        <v>201</v>
-      </c>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="113"/>
-      <c r="N38" s="111"/>
+      <c r="H38" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="115"/>
       <c r="O38" s="13"/>
     </row>
     <row r="39" spans="2:15" ht="36" customHeight="1">
-      <c r="B39" s="110" t="s">
+      <c r="B39" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="111"/>
-      <c r="D39" s="110" t="s">
-        <v>193</v>
-      </c>
-      <c r="E39" s="111"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="115"/>
       <c r="F39" s="36" t="s">
         <v>45</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="I39" s="113"/>
-      <c r="J39" s="113"/>
-      <c r="K39" s="111"/>
-      <c r="L39" s="110"/>
-      <c r="M39" s="113"/>
-      <c r="N39" s="111"/>
+      <c r="H39" s="116" t="s">
+        <v>154</v>
+      </c>
+      <c r="I39" s="117"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="115"/>
+      <c r="L39" s="114"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="115"/>
       <c r="O39" s="13"/>
     </row>
     <row r="40" spans="2:15" ht="36" customHeight="1">
-      <c r="B40" s="110" t="s">
-        <v>183</v>
-      </c>
-      <c r="C40" s="111"/>
-      <c r="D40" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="E40" s="111"/>
+      <c r="B40" s="114" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="115"/>
+      <c r="D40" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="115"/>
       <c r="F40" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G40" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H40" s="112" t="s">
+      <c r="H40" s="116" t="s">
+        <v>182</v>
+      </c>
+      <c r="I40" s="117"/>
+      <c r="J40" s="117"/>
+      <c r="K40" s="115"/>
+      <c r="L40" s="114"/>
+      <c r="M40" s="117"/>
+      <c r="N40" s="115"/>
+      <c r="O40" s="13"/>
+    </row>
+    <row r="41" spans="2:15" ht="36" customHeight="1">
+      <c r="B41" s="114" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" s="115"/>
+      <c r="D41" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="I40" s="113"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="110"/>
-      <c r="M40" s="113"/>
-      <c r="N40" s="111"/>
-      <c r="O40" s="13"/>
-    </row>
-    <row r="41" spans="2:15" ht="36" customHeight="1">
-      <c r="B41" s="110" t="s">
-        <v>202</v>
-      </c>
-      <c r="C41" s="111"/>
-      <c r="D41" s="110" t="s">
-        <v>184</v>
-      </c>
-      <c r="E41" s="111"/>
+      <c r="E41" s="115"/>
       <c r="F41" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H41" s="112" t="s">
-        <v>203</v>
-      </c>
-      <c r="I41" s="113"/>
-      <c r="J41" s="113"/>
-      <c r="K41" s="111"/>
-      <c r="L41" s="110"/>
-      <c r="M41" s="113"/>
-      <c r="N41" s="111"/>
+      <c r="H41" s="116" t="s">
+        <v>202</v>
+      </c>
+      <c r="I41" s="117"/>
+      <c r="J41" s="117"/>
+      <c r="K41" s="115"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="117"/>
+      <c r="N41" s="115"/>
       <c r="O41" s="13"/>
     </row>
     <row r="42" spans="2:15" ht="36" customHeight="1">
-      <c r="B42" s="110" t="s">
-        <v>186</v>
-      </c>
-      <c r="C42" s="111"/>
-      <c r="D42" s="110" t="s">
+      <c r="B42" s="114" t="s">
         <v>185</v>
       </c>
-      <c r="E42" s="111"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="114" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="115"/>
       <c r="F42" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G42" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H42" s="112" t="s">
-        <v>204</v>
-      </c>
-      <c r="I42" s="113"/>
-      <c r="J42" s="113"/>
-      <c r="K42" s="111"/>
-      <c r="L42" s="110"/>
-      <c r="M42" s="113"/>
-      <c r="N42" s="111"/>
+      <c r="H42" s="116" t="s">
+        <v>203</v>
+      </c>
+      <c r="I42" s="117"/>
+      <c r="J42" s="117"/>
+      <c r="K42" s="115"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="117"/>
+      <c r="N42" s="115"/>
       <c r="O42" s="13"/>
     </row>
     <row r="43" spans="2:15" ht="36" customHeight="1">
@@ -11640,51 +11630,51 @@
       <c r="O44" s="1"/>
     </row>
     <row r="45" spans="2:15" ht="36" customHeight="1">
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="81"/>
-      <c r="D45" s="84" t="s">
+      <c r="C45" s="71"/>
+      <c r="D45" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="85"/>
-      <c r="F45" s="84" t="s">
+      <c r="E45" s="68"/>
+      <c r="F45" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="84" t="s">
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="L45" s="85"/>
-      <c r="M45" s="80" t="s">
+      <c r="L45" s="68"/>
+      <c r="M45" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="N45" s="81"/>
+      <c r="N45" s="71"/>
       <c r="O45" s="1"/>
     </row>
     <row r="46" spans="2:15" ht="19.5" customHeight="1">
-      <c r="B46" s="82"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="84" t="s">
+      <c r="B46" s="72"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="85"/>
-      <c r="F46" s="84" t="s">
+      <c r="E46" s="68"/>
+      <c r="F46" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="84" t="s">
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="L46" s="85"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="83"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="73"/>
       <c r="O46" s="1"/>
     </row>
     <row r="47" spans="2:15" ht="19" customHeight="1">
@@ -11693,7 +11683,7 @@
       </c>
       <c r="C47" s="107"/>
       <c r="D47" s="106" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E47" s="107"/>
       <c r="F47" s="106" t="s">
@@ -11704,7 +11694,7 @@
       <c r="I47" s="122"/>
       <c r="J47" s="107"/>
       <c r="K47" s="106" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L47" s="107"/>
       <c r="M47" s="38"/>
@@ -11735,16 +11725,16 @@
       </c>
       <c r="E49" s="107"/>
       <c r="F49" s="106" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G49" s="122"/>
       <c r="H49" s="122"/>
       <c r="I49" s="122"/>
       <c r="J49" s="107"/>
-      <c r="K49" s="114" t="s">
+      <c r="K49" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="L49" s="115"/>
+      <c r="L49" s="111"/>
       <c r="M49" s="38"/>
       <c r="N49" s="39"/>
       <c r="O49" s="1"/>
@@ -11755,14 +11745,14 @@
       <c r="D50" s="108"/>
       <c r="E50" s="109"/>
       <c r="F50" s="108" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G50" s="123"/>
       <c r="H50" s="123"/>
       <c r="I50" s="123"/>
       <c r="J50" s="109"/>
-      <c r="K50" s="116"/>
-      <c r="L50" s="117"/>
+      <c r="K50" s="112"/>
+      <c r="L50" s="113"/>
       <c r="M50" s="40"/>
       <c r="N50" s="41"/>
     </row>
@@ -11776,14 +11766,14 @@
       </c>
       <c r="E51" s="107"/>
       <c r="F51" s="106" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G51" s="122"/>
       <c r="H51" s="122"/>
       <c r="I51" s="122"/>
       <c r="J51" s="107"/>
       <c r="K51" s="106" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L51" s="107"/>
       <c r="M51" s="43"/>
@@ -11814,16 +11804,16 @@
       </c>
       <c r="E53" s="107"/>
       <c r="F53" s="106" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G53" s="122"/>
       <c r="H53" s="122"/>
       <c r="I53" s="122"/>
       <c r="J53" s="107"/>
-      <c r="K53" s="114" t="s">
-        <v>212</v>
-      </c>
-      <c r="L53" s="115"/>
+      <c r="K53" s="110" t="s">
+        <v>211</v>
+      </c>
+      <c r="L53" s="111"/>
       <c r="M53" s="38"/>
       <c r="N53" s="39"/>
       <c r="O53" s="1"/>
@@ -11834,14 +11824,14 @@
       <c r="D54" s="108"/>
       <c r="E54" s="109"/>
       <c r="F54" s="108" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G54" s="123"/>
       <c r="H54" s="123"/>
       <c r="I54" s="123"/>
       <c r="J54" s="109"/>
-      <c r="K54" s="116"/>
-      <c r="L54" s="117"/>
+      <c r="K54" s="112"/>
+      <c r="L54" s="113"/>
       <c r="M54" s="40"/>
       <c r="N54" s="41"/>
     </row>
@@ -11862,7 +11852,7 @@
       <c r="I55" s="122"/>
       <c r="J55" s="107"/>
       <c r="K55" s="106" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L55" s="107"/>
       <c r="M55" s="43"/>
@@ -11893,16 +11883,16 @@
       </c>
       <c r="E57" s="107"/>
       <c r="F57" s="106" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G57" s="122"/>
       <c r="H57" s="122"/>
       <c r="I57" s="122"/>
       <c r="J57" s="107"/>
-      <c r="K57" s="114" t="s">
+      <c r="K57" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="L57" s="115"/>
+      <c r="L57" s="111"/>
       <c r="M57" s="38"/>
       <c r="N57" s="39"/>
       <c r="O57" s="1"/>
@@ -11913,19 +11903,78 @@
       <c r="D58" s="108"/>
       <c r="E58" s="109"/>
       <c r="F58" s="108" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G58" s="123"/>
       <c r="H58" s="123"/>
       <c r="I58" s="123"/>
       <c r="J58" s="109"/>
-      <c r="K58" s="116"/>
-      <c r="L58" s="117"/>
+      <c r="K58" s="112"/>
+      <c r="L58" s="113"/>
       <c r="M58" s="40"/>
       <c r="N58" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="M45:N46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="B45:C46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="K53:L54"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="B47:C50"/>
+    <mergeCell ref="F47:J48"/>
+    <mergeCell ref="K47:L48"/>
+    <mergeCell ref="D49:E50"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="K49:L50"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="D47:E48"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="B55:C58"/>
+    <mergeCell ref="D55:E56"/>
+    <mergeCell ref="K55:L56"/>
+    <mergeCell ref="D57:E58"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="K57:L58"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F55:J56"/>
+    <mergeCell ref="B51:C54"/>
+    <mergeCell ref="D51:E52"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="K51:L52"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="D53:E54"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="H42:K42"/>
@@ -11942,65 +11991,6 @@
     <mergeCell ref="L40:N40"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="B55:C58"/>
-    <mergeCell ref="D55:E56"/>
-    <mergeCell ref="K55:L56"/>
-    <mergeCell ref="D57:E58"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="K57:L58"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F55:J56"/>
-    <mergeCell ref="B51:C54"/>
-    <mergeCell ref="D51:E52"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="K51:L52"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="D53:E54"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="K53:L54"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="B47:C50"/>
-    <mergeCell ref="F47:J48"/>
-    <mergeCell ref="K47:L48"/>
-    <mergeCell ref="D49:E50"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="K49:L50"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="D47:E48"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="B45:C46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -12017,12 +12007,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="2" customWidth="1"/>
-    <col min="2" max="14" width="6.1640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="12.5" style="2"/>
+    <col min="1" max="1" width="2.796875" style="2" customWidth="1"/>
+    <col min="2" max="14" width="6.1328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.796875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="12.46484375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="21" customHeight="1">
@@ -12042,21 +12032,21 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="2:15" ht="30.75" customHeight="1">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="92"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="2:15" ht="19.5" customHeight="1">
@@ -12064,7 +12054,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
@@ -12075,7 +12065,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K3" s="119"/>
       <c r="L3" s="29"/>
@@ -12136,7 +12126,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
@@ -12572,264 +12562,264 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="2:15" ht="33" customHeight="1">
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="84" t="s">
+      <c r="C33" s="68"/>
+      <c r="D33" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="85"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="84" t="s">
+      <c r="H33" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="84" t="s">
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="M33" s="86"/>
-      <c r="N33" s="85"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="68"/>
     </row>
     <row r="34" spans="2:15" ht="36" customHeight="1">
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="111"/>
-      <c r="D34" s="110" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="111"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="114" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="115"/>
       <c r="F34" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="111"/>
+      <c r="H34" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="115"/>
       <c r="O34" s="13"/>
     </row>
     <row r="35" spans="2:15" ht="36" customHeight="1">
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="111"/>
-      <c r="D35" s="110" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" s="111"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="114" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" s="115"/>
       <c r="F35" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="112" t="s">
-        <v>158</v>
-      </c>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="113"/>
-      <c r="N35" s="111"/>
+      <c r="H35" s="116" t="s">
+        <v>157</v>
+      </c>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="115"/>
       <c r="O35" s="13"/>
     </row>
     <row r="36" spans="2:15" ht="36" customHeight="1">
-      <c r="B36" s="110" t="s">
+      <c r="B36" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="111"/>
-      <c r="D36" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="E36" s="111"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="115"/>
       <c r="F36" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H36" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="110"/>
-      <c r="M36" s="113"/>
-      <c r="N36" s="111"/>
+      <c r="H36" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="I36" s="117"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="115"/>
       <c r="O36" s="13"/>
     </row>
     <row r="37" spans="2:15" ht="36" customHeight="1">
-      <c r="B37" s="110" t="s">
+      <c r="B37" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="111"/>
-      <c r="D37" s="110" t="s">
+      <c r="C37" s="115"/>
+      <c r="D37" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="111"/>
+      <c r="E37" s="115"/>
       <c r="F37" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="112" t="s">
-        <v>200</v>
-      </c>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="110"/>
-      <c r="M37" s="113"/>
-      <c r="N37" s="111"/>
+      <c r="H37" s="116" t="s">
+        <v>199</v>
+      </c>
+      <c r="I37" s="117"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="114"/>
+      <c r="M37" s="117"/>
+      <c r="N37" s="115"/>
       <c r="O37" s="13"/>
     </row>
     <row r="38" spans="2:15" ht="36" customHeight="1">
-      <c r="B38" s="110" t="s">
+      <c r="B38" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="111"/>
-      <c r="D38" s="110" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" s="111"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" s="115"/>
       <c r="F38" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H38" s="112" t="s">
-        <v>201</v>
-      </c>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="113"/>
-      <c r="N38" s="111"/>
+      <c r="H38" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="115"/>
       <c r="O38" s="13"/>
     </row>
     <row r="39" spans="2:15" ht="36" customHeight="1">
-      <c r="B39" s="110" t="s">
+      <c r="B39" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="111"/>
-      <c r="D39" s="110" t="s">
-        <v>193</v>
-      </c>
-      <c r="E39" s="111"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="115"/>
       <c r="F39" s="36" t="s">
         <v>45</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="I39" s="113"/>
-      <c r="J39" s="113"/>
-      <c r="K39" s="111"/>
-      <c r="L39" s="110"/>
-      <c r="M39" s="113"/>
-      <c r="N39" s="111"/>
+      <c r="H39" s="116" t="s">
+        <v>154</v>
+      </c>
+      <c r="I39" s="117"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="115"/>
+      <c r="L39" s="114"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="115"/>
       <c r="O39" s="13"/>
     </row>
     <row r="40" spans="2:15" ht="36" customHeight="1">
-      <c r="B40" s="110" t="s">
-        <v>183</v>
-      </c>
-      <c r="C40" s="111"/>
-      <c r="D40" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="E40" s="111"/>
+      <c r="B40" s="114" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="115"/>
+      <c r="D40" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="115"/>
       <c r="F40" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G40" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H40" s="112" t="s">
+      <c r="H40" s="116" t="s">
+        <v>182</v>
+      </c>
+      <c r="I40" s="117"/>
+      <c r="J40" s="117"/>
+      <c r="K40" s="115"/>
+      <c r="L40" s="114"/>
+      <c r="M40" s="117"/>
+      <c r="N40" s="115"/>
+      <c r="O40" s="13"/>
+    </row>
+    <row r="41" spans="2:15" ht="36" customHeight="1">
+      <c r="B41" s="114" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" s="115"/>
+      <c r="D41" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="I40" s="113"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="110"/>
-      <c r="M40" s="113"/>
-      <c r="N40" s="111"/>
-      <c r="O40" s="13"/>
-    </row>
-    <row r="41" spans="2:15" ht="36" customHeight="1">
-      <c r="B41" s="110" t="s">
-        <v>202</v>
-      </c>
-      <c r="C41" s="111"/>
-      <c r="D41" s="110" t="s">
-        <v>184</v>
-      </c>
-      <c r="E41" s="111"/>
+      <c r="E41" s="115"/>
       <c r="F41" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H41" s="112" t="s">
-        <v>203</v>
-      </c>
-      <c r="I41" s="113"/>
-      <c r="J41" s="113"/>
-      <c r="K41" s="111"/>
-      <c r="L41" s="110"/>
-      <c r="M41" s="113"/>
-      <c r="N41" s="111"/>
+      <c r="H41" s="116" t="s">
+        <v>202</v>
+      </c>
+      <c r="I41" s="117"/>
+      <c r="J41" s="117"/>
+      <c r="K41" s="115"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="117"/>
+      <c r="N41" s="115"/>
       <c r="O41" s="13"/>
     </row>
     <row r="42" spans="2:15" ht="36" customHeight="1">
-      <c r="B42" s="110" t="s">
-        <v>186</v>
-      </c>
-      <c r="C42" s="111"/>
-      <c r="D42" s="110" t="s">
+      <c r="B42" s="114" t="s">
         <v>185</v>
       </c>
-      <c r="E42" s="111"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="114" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="115"/>
       <c r="F42" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G42" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H42" s="112" t="s">
-        <v>204</v>
-      </c>
-      <c r="I42" s="113"/>
-      <c r="J42" s="113"/>
-      <c r="K42" s="111"/>
-      <c r="L42" s="110"/>
-      <c r="M42" s="113"/>
-      <c r="N42" s="111"/>
+      <c r="H42" s="116" t="s">
+        <v>203</v>
+      </c>
+      <c r="I42" s="117"/>
+      <c r="J42" s="117"/>
+      <c r="K42" s="115"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="117"/>
+      <c r="N42" s="115"/>
       <c r="O42" s="13"/>
     </row>
     <row r="43" spans="2:15" ht="36" customHeight="1">
@@ -12867,51 +12857,51 @@
       <c r="O44" s="1"/>
     </row>
     <row r="45" spans="2:15" ht="36" customHeight="1">
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="81"/>
-      <c r="D45" s="84" t="s">
+      <c r="C45" s="71"/>
+      <c r="D45" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="85"/>
-      <c r="F45" s="84" t="s">
+      <c r="E45" s="68"/>
+      <c r="F45" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="84" t="s">
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="L45" s="85"/>
-      <c r="M45" s="80" t="s">
+      <c r="L45" s="68"/>
+      <c r="M45" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="N45" s="81"/>
+      <c r="N45" s="71"/>
       <c r="O45" s="1"/>
     </row>
     <row r="46" spans="2:15" ht="19.5" customHeight="1">
-      <c r="B46" s="82"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="84" t="s">
+      <c r="B46" s="72"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="85"/>
-      <c r="F46" s="84" t="s">
+      <c r="E46" s="68"/>
+      <c r="F46" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="84" t="s">
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="L46" s="85"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="83"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="73"/>
       <c r="O46" s="1"/>
     </row>
     <row r="47" spans="2:15" ht="19" customHeight="1">
@@ -12920,7 +12910,7 @@
       </c>
       <c r="C47" s="107"/>
       <c r="D47" s="106" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E47" s="107"/>
       <c r="F47" s="106" t="s">
@@ -12931,7 +12921,7 @@
       <c r="I47" s="122"/>
       <c r="J47" s="107"/>
       <c r="K47" s="106" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L47" s="107"/>
       <c r="M47" s="38"/>
@@ -12962,16 +12952,16 @@
       </c>
       <c r="E49" s="107"/>
       <c r="F49" s="106" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G49" s="122"/>
       <c r="H49" s="122"/>
       <c r="I49" s="122"/>
       <c r="J49" s="107"/>
-      <c r="K49" s="114" t="s">
+      <c r="K49" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="L49" s="115"/>
+      <c r="L49" s="111"/>
       <c r="M49" s="38"/>
       <c r="N49" s="39"/>
       <c r="O49" s="1"/>
@@ -12982,14 +12972,14 @@
       <c r="D50" s="108"/>
       <c r="E50" s="109"/>
       <c r="F50" s="108" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G50" s="123"/>
       <c r="H50" s="123"/>
       <c r="I50" s="123"/>
       <c r="J50" s="109"/>
-      <c r="K50" s="116"/>
-      <c r="L50" s="117"/>
+      <c r="K50" s="112"/>
+      <c r="L50" s="113"/>
       <c r="M50" s="40"/>
       <c r="N50" s="41"/>
     </row>
@@ -13003,14 +12993,14 @@
       </c>
       <c r="E51" s="107"/>
       <c r="F51" s="106" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G51" s="122"/>
       <c r="H51" s="122"/>
       <c r="I51" s="122"/>
       <c r="J51" s="107"/>
       <c r="K51" s="106" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L51" s="107"/>
       <c r="M51" s="43"/>
@@ -13041,16 +13031,16 @@
       </c>
       <c r="E53" s="107"/>
       <c r="F53" s="106" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G53" s="122"/>
       <c r="H53" s="122"/>
       <c r="I53" s="122"/>
       <c r="J53" s="107"/>
-      <c r="K53" s="114" t="s">
-        <v>212</v>
-      </c>
-      <c r="L53" s="115"/>
+      <c r="K53" s="110" t="s">
+        <v>211</v>
+      </c>
+      <c r="L53" s="111"/>
       <c r="M53" s="38"/>
       <c r="N53" s="39"/>
       <c r="O53" s="1"/>
@@ -13061,14 +13051,14 @@
       <c r="D54" s="108"/>
       <c r="E54" s="109"/>
       <c r="F54" s="108" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G54" s="123"/>
       <c r="H54" s="123"/>
       <c r="I54" s="123"/>
       <c r="J54" s="109"/>
-      <c r="K54" s="116"/>
-      <c r="L54" s="117"/>
+      <c r="K54" s="112"/>
+      <c r="L54" s="113"/>
       <c r="M54" s="40"/>
       <c r="N54" s="41"/>
     </row>
@@ -13089,7 +13079,7 @@
       <c r="I55" s="122"/>
       <c r="J55" s="107"/>
       <c r="K55" s="106" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L55" s="107"/>
       <c r="M55" s="43"/>
@@ -13120,16 +13110,16 @@
       </c>
       <c r="E57" s="107"/>
       <c r="F57" s="106" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G57" s="122"/>
       <c r="H57" s="122"/>
       <c r="I57" s="122"/>
       <c r="J57" s="107"/>
-      <c r="K57" s="114" t="s">
+      <c r="K57" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="L57" s="115"/>
+      <c r="L57" s="111"/>
       <c r="M57" s="38"/>
       <c r="N57" s="39"/>
       <c r="O57" s="1"/>
@@ -13140,20 +13130,20 @@
       <c r="D58" s="108"/>
       <c r="E58" s="109"/>
       <c r="F58" s="108" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G58" s="123"/>
       <c r="H58" s="123"/>
       <c r="I58" s="123"/>
       <c r="J58" s="109"/>
-      <c r="K58" s="116"/>
-      <c r="L58" s="117"/>
+      <c r="K58" s="112"/>
+      <c r="L58" s="113"/>
       <c r="M58" s="40"/>
       <c r="N58" s="41"/>
     </row>
     <row r="59" spans="2:15" ht="15" customHeight="1">
       <c r="B59" s="106" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C59" s="107"/>
       <c r="D59" s="106" t="s">
@@ -13195,16 +13185,16 @@
       </c>
       <c r="E61" s="107"/>
       <c r="F61" s="106" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G61" s="122"/>
       <c r="H61" s="122"/>
       <c r="I61" s="122"/>
       <c r="J61" s="107"/>
-      <c r="K61" s="114" t="s">
+      <c r="K61" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="L61" s="115"/>
+      <c r="L61" s="111"/>
       <c r="M61" s="38"/>
       <c r="N61" s="39"/>
     </row>
@@ -13214,14 +13204,14 @@
       <c r="D62" s="108"/>
       <c r="E62" s="109"/>
       <c r="F62" s="108" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G62" s="123"/>
       <c r="H62" s="123"/>
       <c r="I62" s="123"/>
       <c r="J62" s="109"/>
-      <c r="K62" s="116"/>
-      <c r="L62" s="117"/>
+      <c r="K62" s="112"/>
+      <c r="L62" s="113"/>
       <c r="M62" s="40"/>
       <c r="N62" s="41"/>
     </row>
@@ -13275,10 +13265,10 @@
       <c r="H65" s="122"/>
       <c r="I65" s="122"/>
       <c r="J65" s="107"/>
-      <c r="K65" s="114" t="s">
+      <c r="K65" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="L65" s="115"/>
+      <c r="L65" s="111"/>
       <c r="M65" s="38"/>
       <c r="N65" s="39"/>
     </row>
@@ -13288,14 +13278,14 @@
       <c r="D66" s="108"/>
       <c r="E66" s="109"/>
       <c r="F66" s="108" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G66" s="123"/>
       <c r="H66" s="123"/>
       <c r="I66" s="123"/>
       <c r="J66" s="109"/>
-      <c r="K66" s="116"/>
-      <c r="L66" s="117"/>
+      <c r="K66" s="112"/>
+      <c r="L66" s="113"/>
       <c r="M66" s="40"/>
       <c r="N66" s="41"/>
     </row>
@@ -13309,7 +13299,7 @@
       </c>
       <c r="E67" s="107"/>
       <c r="F67" s="106" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G67" s="122"/>
       <c r="H67" s="122"/>
@@ -13349,10 +13339,10 @@
       <c r="H69" s="122"/>
       <c r="I69" s="122"/>
       <c r="J69" s="107"/>
-      <c r="K69" s="114" t="s">
+      <c r="K69" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="L69" s="115"/>
+      <c r="L69" s="111"/>
       <c r="M69" s="38"/>
       <c r="N69" s="39"/>
     </row>
@@ -13362,68 +13352,57 @@
       <c r="D70" s="108"/>
       <c r="E70" s="109"/>
       <c r="F70" s="108" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G70" s="123"/>
       <c r="H70" s="123"/>
       <c r="I70" s="123"/>
       <c r="J70" s="109"/>
-      <c r="K70" s="116"/>
-      <c r="L70" s="117"/>
+      <c r="K70" s="112"/>
+      <c r="L70" s="113"/>
       <c r="M70" s="40"/>
       <c r="N70" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="B67:C70"/>
-    <mergeCell ref="D67:E68"/>
-    <mergeCell ref="F67:J68"/>
-    <mergeCell ref="K67:L68"/>
-    <mergeCell ref="D69:E70"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="K69:L70"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="B63:C66"/>
-    <mergeCell ref="D63:E64"/>
-    <mergeCell ref="K63:L64"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="K65:L66"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F63:J64"/>
-    <mergeCell ref="B59:C62"/>
-    <mergeCell ref="D59:E60"/>
-    <mergeCell ref="F59:J60"/>
-    <mergeCell ref="K59:L60"/>
-    <mergeCell ref="D61:E62"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="K61:L62"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="B55:C58"/>
-    <mergeCell ref="D55:E56"/>
-    <mergeCell ref="F55:J56"/>
-    <mergeCell ref="K55:L56"/>
-    <mergeCell ref="D57:E58"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="K57:L58"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="B51:C54"/>
-    <mergeCell ref="D51:E52"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="K51:L52"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="D53:E54"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="K53:L54"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="B47:C50"/>
-    <mergeCell ref="D47:E48"/>
-    <mergeCell ref="F47:J48"/>
-    <mergeCell ref="K47:L48"/>
-    <mergeCell ref="D49:E50"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="K49:L50"/>
-    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:N41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="H42:K42"/>
@@ -13436,44 +13415,55 @@
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F46:J46"/>
     <mergeCell ref="K46:L46"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="B47:C50"/>
+    <mergeCell ref="D47:E48"/>
+    <mergeCell ref="F47:J48"/>
+    <mergeCell ref="K47:L48"/>
+    <mergeCell ref="D49:E50"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="K49:L50"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="B51:C54"/>
+    <mergeCell ref="D51:E52"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="K51:L52"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="D53:E54"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="K53:L54"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="B55:C58"/>
+    <mergeCell ref="D55:E56"/>
+    <mergeCell ref="F55:J56"/>
+    <mergeCell ref="K55:L56"/>
+    <mergeCell ref="D57:E58"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="K57:L58"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="B59:C62"/>
+    <mergeCell ref="D59:E60"/>
+    <mergeCell ref="F59:J60"/>
+    <mergeCell ref="K59:L60"/>
+    <mergeCell ref="D61:E62"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="K61:L62"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="B63:C66"/>
+    <mergeCell ref="D63:E64"/>
+    <mergeCell ref="K63:L64"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="K65:L66"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F63:J64"/>
+    <mergeCell ref="B67:C70"/>
+    <mergeCell ref="D67:E68"/>
+    <mergeCell ref="F67:J68"/>
+    <mergeCell ref="K67:L68"/>
+    <mergeCell ref="D69:E70"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="K69:L70"/>
+    <mergeCell ref="F70:J70"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -13490,12 +13480,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="2" customWidth="1"/>
-    <col min="2" max="14" width="6.1640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="12.5" style="2"/>
+    <col min="1" max="1" width="2.796875" style="2" customWidth="1"/>
+    <col min="2" max="14" width="6.1328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.796875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="12.46484375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="21" customHeight="1">
@@ -13515,21 +13505,21 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="2:15" ht="30.75" customHeight="1">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="92"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="2:15" ht="19.5" customHeight="1">
@@ -13537,7 +13527,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
@@ -13548,7 +13538,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K3" s="119"/>
       <c r="L3" s="29"/>
@@ -13585,7 +13575,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -13596,7 +13586,7 @@
         <v>9</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
@@ -13609,7 +13599,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
@@ -14045,56 +14035,56 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="2:15" ht="33" customHeight="1">
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="84" t="s">
+      <c r="C33" s="68"/>
+      <c r="D33" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="85"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="84" t="s">
+      <c r="H33" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="84" t="s">
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="M33" s="86"/>
-      <c r="N33" s="85"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="68"/>
     </row>
     <row r="34" spans="2:15" ht="36" customHeight="1">
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="111"/>
-      <c r="D34" s="110" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="111"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="114" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="115"/>
       <c r="F34" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="111"/>
+      <c r="H34" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="115"/>
       <c r="O34" s="13"/>
     </row>
     <row r="35" spans="2:15" ht="36" customHeight="1">
@@ -14132,51 +14122,51 @@
       <c r="O36" s="13"/>
     </row>
     <row r="37" spans="2:15" ht="36" customHeight="1">
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="84" t="s">
+      <c r="C37" s="71"/>
+      <c r="D37" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="84" t="s">
+      <c r="E37" s="68"/>
+      <c r="F37" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="84" t="s">
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="L37" s="85"/>
-      <c r="M37" s="80" t="s">
+      <c r="L37" s="68"/>
+      <c r="M37" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="N37" s="81"/>
+      <c r="N37" s="71"/>
       <c r="O37" s="13"/>
     </row>
     <row r="38" spans="2:15" ht="36" customHeight="1">
-      <c r="B38" s="82"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="84" t="s">
+      <c r="B38" s="72"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="85"/>
-      <c r="F38" s="84" t="s">
+      <c r="E38" s="68"/>
+      <c r="F38" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="84" t="s">
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="L38" s="85"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="83"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="73"/>
       <c r="O38" s="13"/>
     </row>
     <row r="39" spans="2:15" ht="19" customHeight="1">
@@ -14185,7 +14175,7 @@
       </c>
       <c r="C39" s="107"/>
       <c r="D39" s="106" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E39" s="107"/>
       <c r="F39" s="106" t="s">
@@ -14223,18 +14213,18 @@
       <c r="B41" s="120"/>
       <c r="C41" s="121"/>
       <c r="D41" s="106" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E41" s="107"/>
       <c r="F41" s="106" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G41" s="122"/>
       <c r="H41" s="122"/>
       <c r="I41" s="122"/>
       <c r="J41" s="107"/>
       <c r="K41" s="106" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L41" s="107"/>
       <c r="M41" s="38"/>
@@ -14247,7 +14237,7 @@
       <c r="D42" s="108"/>
       <c r="E42" s="109"/>
       <c r="F42" s="108" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G42" s="123"/>
       <c r="H42" s="123"/>
@@ -14260,20 +14250,20 @@
     </row>
     <row r="43" spans="2:15" ht="15" customHeight="1">
       <c r="B43" s="106" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C43" s="107"/>
       <c r="D43" s="106"/>
       <c r="E43" s="107"/>
       <c r="F43" s="106" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G43" s="122"/>
       <c r="H43" s="122"/>
       <c r="I43" s="122"/>
       <c r="J43" s="107"/>
       <c r="K43" s="106" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L43" s="107"/>
       <c r="M43" s="43"/>
@@ -14298,7 +14288,7 @@
       <c r="B45" s="120"/>
       <c r="C45" s="121"/>
       <c r="D45" s="106" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E45" s="107"/>
       <c r="F45" s="106" t="s">
@@ -14309,7 +14299,7 @@
       <c r="I45" s="122"/>
       <c r="J45" s="107"/>
       <c r="K45" s="106" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L45" s="107"/>
       <c r="M45" s="38"/>
@@ -14321,7 +14311,7 @@
       <c r="D46" s="108"/>
       <c r="E46" s="109"/>
       <c r="F46" s="108" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G46" s="123"/>
       <c r="H46" s="123"/>
@@ -14334,6 +14324,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="B37:C38"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="K37:L37"/>
     <mergeCell ref="K41:L42"/>
     <mergeCell ref="B43:C46"/>
     <mergeCell ref="D43:E44"/>
@@ -14350,24 +14358,6 @@
     <mergeCell ref="D41:E42"/>
     <mergeCell ref="F41:J41"/>
     <mergeCell ref="F42:J42"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="B37:C38"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="L33:N33"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
